--- a/Datos_ent/Base.xlsx
+++ b/Datos_ent/Base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bancolombia-my.sharepoint.com/personal/arygonza_bancolombia_com_co/Documents/Bancolombia_ARGO/Bancolombia_Argo_2023/Personales/Econometria_Uext/VAR_Models/Datos_ent/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\repos\VAR_Models\Datos_ent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{64048535-1783-43CD-A5F6-14EF31E638C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8558B70-DA05-4D8B-9929-7F186544ACAE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6FB0DD-2B09-4126-AB48-7D65594F2586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{F7DE5675-7431-4D40-AC4D-5D3792C506F0}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{F7DE5675-7431-4D40-AC4D-5D3792C506F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Fuente:</t>
   </si>
@@ -61,13 +61,16 @@
   <si>
     <t>fecha</t>
   </si>
+  <si>
+    <t>EMBI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -130,7 +133,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -155,9 +158,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -195,7 +198,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -301,7 +304,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -443,7 +446,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -451,15 +454,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06AA51F-FD66-422B-8077-68ED66061B9A}">
-  <dimension ref="A1:D214"/>
+  <dimension ref="A1:E224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="D224" sqref="D224"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -486,22 +489,25 @@
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>38718</v>
       </c>
       <c r="B4" s="3">
-        <v>2271.4909523809524</v>
+        <v>2271.9709090909096</v>
       </c>
       <c r="C4" s="4">
         <v>62.99</v>
       </c>
       <c r="D4" s="4">
-        <v>100.00000454545453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89.121818181818185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>38749</v>
       </c>
@@ -512,10 +518,10 @@
         <v>60.21</v>
       </c>
       <c r="D5" s="4">
-        <v>100.21117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90.36699999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>38777</v>
       </c>
@@ -526,10 +532,10 @@
         <v>62.06</v>
       </c>
       <c r="D6" s="4">
-        <v>100.42808695652175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89.966956521739135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>38808</v>
       </c>
@@ -540,10 +546,10 @@
         <v>70.260000000000005</v>
       </c>
       <c r="D7" s="4">
-        <v>99.743480000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88.47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>38838</v>
       </c>
@@ -554,10 +560,10 @@
         <v>69.78</v>
       </c>
       <c r="D8" s="4">
-        <v>97.511773913043484</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84.874782608695654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>38869</v>
       </c>
@@ -568,10 +574,10 @@
         <v>68.56</v>
       </c>
       <c r="D9" s="4">
-        <v>98.692722727272752</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85.765909090909091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>38899</v>
       </c>
@@ -582,10 +588,10 @@
         <v>73.67</v>
       </c>
       <c r="D10" s="4">
-        <v>98.438714285714298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85.859047619047629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>38930</v>
       </c>
@@ -596,10 +602,10 @@
         <v>73.23</v>
       </c>
       <c r="D11" s="4">
-        <v>97.713765217391327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85.045217391304334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>38961</v>
       </c>
@@ -610,10 +616,10 @@
         <v>61.96</v>
       </c>
       <c r="D12" s="4">
-        <v>97.981361904761911</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85.572857142857146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>38991</v>
       </c>
@@ -624,10 +630,10 @@
         <v>57.81</v>
       </c>
       <c r="D13" s="4">
-        <v>98.315654545454535</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86.342727272727259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>39022</v>
       </c>
@@ -638,10 +644,10 @@
         <v>58.76</v>
       </c>
       <c r="D14" s="4">
-        <v>97.51328181818181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84.844545454545468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>39052</v>
       </c>
@@ -652,10 +658,10 @@
         <v>62.47</v>
       </c>
       <c r="D15" s="4">
-        <v>96.795071428571418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83.38333333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>39083</v>
       </c>
@@ -666,10 +672,10 @@
         <v>53.68</v>
       </c>
       <c r="D16" s="4">
-        <v>97.833777272727275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84.745217391304337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>39114</v>
       </c>
@@ -680,10 +686,10 @@
         <v>57.56</v>
       </c>
       <c r="D17" s="4">
-        <v>97.476425000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84.390500000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>39142</v>
       </c>
@@ -694,10 +700,10 @@
         <v>62.05</v>
       </c>
       <c r="D18" s="4">
-        <v>97.011754545454536</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83.484090909090909</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>39173</v>
       </c>
@@ -708,10 +714,10 @@
         <v>67.489999999999995</v>
       </c>
       <c r="D19" s="4">
-        <v>95.632199999999969</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82.190142857142874</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>39203</v>
       </c>
@@ -722,10 +728,10 @@
         <v>67.209999999999994</v>
       </c>
       <c r="D20" s="4">
-        <v>94.722547826086966</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82.118913043478244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>39234</v>
       </c>
@@ -736,10 +742,10 @@
         <v>71.05</v>
       </c>
       <c r="D21" s="4">
-        <v>94.444909523809514</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82.466761904761924</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>39264</v>
       </c>
@@ -750,10 +756,10 @@
         <v>76.930000000000007</v>
       </c>
       <c r="D22" s="4">
-        <v>93.205913636363633</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80.808909090909097</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>39295</v>
       </c>
@@ -764,10 +770,10 @@
         <v>70.760000000000005</v>
       </c>
       <c r="D23" s="4">
-        <v>93.760295652173895</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80.935173913043485</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>39326</v>
       </c>
@@ -778,10 +784,10 @@
         <v>77.17</v>
       </c>
       <c r="D24" s="4">
-        <v>92.436595000000011</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79.37684999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>39356</v>
       </c>
@@ -792,10 +798,10 @@
         <v>82.34</v>
       </c>
       <c r="D25" s="4">
-        <v>90.400178260869581</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77.847347826086946</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>39387</v>
       </c>
@@ -806,10 +812,10 @@
         <v>92.41</v>
       </c>
       <c r="D26" s="4">
-        <v>89.052995454545439</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75.641227272727264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>39417</v>
       </c>
@@ -820,10 +826,10 @@
         <v>90.93</v>
       </c>
       <c r="D27" s="4">
-        <v>90.004957142857137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76.803238095238115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>39448</v>
       </c>
@@ -834,10 +840,10 @@
         <v>92.18</v>
       </c>
       <c r="D28" s="4">
-        <v>89.397117391304363</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75.981695652173897</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>39479</v>
       </c>
@@ -848,10 +854,10 @@
         <v>94.99</v>
       </c>
       <c r="D29" s="4">
-        <v>88.643438095238082</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75.698380952380944</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>39508</v>
       </c>
@@ -862,10 +868,10 @@
         <v>103.64</v>
       </c>
       <c r="D30" s="4">
-        <v>86.83986666666668</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72.467476190476205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>39539</v>
       </c>
@@ -876,10 +882,10 @@
         <v>109.07</v>
       </c>
       <c r="D31" s="4">
-        <v>86.547536363636368</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72.116545454545445</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>39569</v>
       </c>
@@ -890,10 +896,10 @@
         <v>122.8</v>
       </c>
       <c r="D32" s="4">
-        <v>86.824463636363646</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72.86572727272727</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>39600</v>
       </c>
@@ -904,10 +910,10 @@
         <v>132.32</v>
       </c>
       <c r="D33" s="4">
-        <v>87.072804761904777</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73.179999999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>39630</v>
       </c>
@@ -918,10 +924,10 @@
         <v>132.72</v>
       </c>
       <c r="D34" s="4">
-        <v>86.453756521739137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72.545695652173876</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>39661</v>
       </c>
@@ -932,10 +938,10 @@
         <v>113.24</v>
       </c>
       <c r="D35" s="4">
-        <v>88.94499523809526</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76.060904761904766</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>39692</v>
       </c>
@@ -946,10 +952,10 @@
         <v>97.23</v>
       </c>
       <c r="D36" s="4">
-        <v>91.265109090909107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78.223090909090914</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>39722</v>
       </c>
@@ -960,10 +966,10 @@
         <v>71.58</v>
       </c>
       <c r="D37" s="4">
-        <v>98.039999999999978</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83.111956521739117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>39753</v>
       </c>
@@ -974,10 +980,10 @@
         <v>52.45</v>
       </c>
       <c r="D38" s="4">
-        <v>100.76666</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86.391449999999992</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>39783</v>
       </c>
@@ -988,10 +994,10 @@
         <v>39.950000000000003</v>
       </c>
       <c r="D39" s="4">
-        <v>99.662247826086954</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82.973434782608706</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39814</v>
       </c>
@@ -1002,10 +1008,10 @@
         <v>43.44</v>
       </c>
       <c r="D40" s="4">
-        <v>100.35208421052631</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83.964500000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>39845</v>
       </c>
@@ -1016,10 +1022,10 @@
         <v>43.32</v>
       </c>
       <c r="D41" s="4">
-        <v>102.97372631578946</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86.540400000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>39873</v>
       </c>
@@ -1030,10 +1036,10 @@
         <v>46.54</v>
       </c>
       <c r="D42" s="4">
-        <v>103.43974545454545</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86.410636363636343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>39904</v>
       </c>
@@ -1044,10 +1050,10 @@
         <v>50.18</v>
       </c>
       <c r="D43" s="4">
-        <v>100.71618636363637</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85.254909090909095</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>39934</v>
       </c>
@@ -1058,10 +1064,10 @@
         <v>57.3</v>
       </c>
       <c r="D44" s="4">
-        <v>97.551880000000011</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82.035428571428582</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>39965</v>
       </c>
@@ -1072,10 +1078,10 @@
         <v>68.61</v>
       </c>
       <c r="D45" s="4">
-        <v>96.042618181818213</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80.116636363636374</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>39995</v>
       </c>
@@ -1086,10 +1092,10 @@
         <v>64.44</v>
       </c>
       <c r="D46" s="4">
-        <v>95.660559090909061</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79.526347826086948</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>40026</v>
       </c>
@@ -1100,10 +1106,10 @@
         <v>72.510000000000005</v>
       </c>
       <c r="D47" s="4">
-        <v>94.373042857142863</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78.447857142857146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>40057</v>
       </c>
@@ -1114,10 +1120,10 @@
         <v>67.650000000000006</v>
       </c>
       <c r="D48" s="4">
-        <v>93.663800000000023</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77.053090909090898</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>40087</v>
       </c>
@@ -1128,10 +1134,10 @@
         <v>72.77</v>
       </c>
       <c r="D49" s="4">
-        <v>92.259761904761888</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76.010772727272723</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>40118</v>
       </c>
@@ -1142,10 +1148,10 @@
         <v>76.66</v>
       </c>
       <c r="D50" s="4">
-        <v>91.799610526315774</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75.307619047619056</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>40148</v>
       </c>
@@ -1156,10 +1162,10 @@
         <v>74.459999999999994</v>
       </c>
       <c r="D51" s="4">
-        <v>92.258619047619035</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76.827739130434765</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>40179</v>
       </c>
@@ -1170,10 +1176,10 @@
         <v>76.17</v>
       </c>
       <c r="D52" s="4">
-        <v>92.440300000000008</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77.804904761904751</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>40210</v>
       </c>
@@ -1184,10 +1190,10 @@
         <v>73.75</v>
       </c>
       <c r="D53" s="4">
-        <v>93.886679999999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80.164600000000007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>40238</v>
       </c>
@@ -1198,10 +1204,10 @@
         <v>78.83</v>
       </c>
       <c r="D54" s="4">
-        <v>93.149878260869613</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80.671608695652168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>40269</v>
       </c>
@@ -1212,10 +1218,10 @@
         <v>84.82</v>
       </c>
       <c r="D55" s="4">
-        <v>92.639086363636366</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81.235954545454547</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>40299</v>
       </c>
@@ -1226,10 +1232,10 @@
         <v>75.95</v>
       </c>
       <c r="D56" s="4">
-        <v>95.530640000000005</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85.419095238095252</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>40330</v>
       </c>
@@ -1240,10 +1246,10 @@
         <v>74.760000000000005</v>
       </c>
       <c r="D57" s="4">
-        <v>96.060627272727288</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86.575454545454576</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>40360</v>
       </c>
@@ -1254,10 +1260,10 @@
         <v>75.58</v>
       </c>
       <c r="D58" s="4">
-        <v>94.454690476190464</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83.140045454545458</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>40391</v>
       </c>
@@ -1268,10 +1274,10 @@
         <v>77.040000000000006</v>
       </c>
       <c r="D59" s="4">
-        <v>93.682231818181833</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82.148863636363615</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>40422</v>
       </c>
@@ -1282,10 +1288,10 @@
         <v>77.84</v>
       </c>
       <c r="D60" s="4">
-        <v>92.762595238095244</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81.081818181818178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>40452</v>
       </c>
@@ -1296,10 +1302,10 @@
         <v>82.67</v>
       </c>
       <c r="D61" s="4">
-        <v>90.229119999999995</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77.459952380952387</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>40483</v>
       </c>
@@ -1310,10 +1316,10 @@
         <v>85.28</v>
       </c>
       <c r="D62" s="4">
-        <v>90.509535000000014</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78.443136363636356</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>40513</v>
       </c>
@@ -1324,10 +1330,10 @@
         <v>91.45</v>
       </c>
       <c r="D63" s="4">
-        <v>91.183471428571437</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80.067999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>40544</v>
       </c>
@@ -1338,10 +1344,10 @@
         <v>96.52</v>
       </c>
       <c r="D64" s="4">
-        <v>90.111219999999989</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79.155380952380966</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>40575</v>
       </c>
@@ -1352,10 +1358,10 @@
         <v>103.72</v>
       </c>
       <c r="D65" s="4">
-        <v>89.396689473684233</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77.777600000000007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>40603</v>
       </c>
@@ -1366,10 +1372,10 @@
         <v>114.64</v>
       </c>
       <c r="D66" s="4">
-        <v>88.487226086956511</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76.28765217391306</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>40634</v>
       </c>
@@ -1380,10 +1386,10 @@
         <v>123.26</v>
       </c>
       <c r="D67" s="4">
-        <v>86.921366666666643</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74.689761904761909</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>40664</v>
       </c>
@@ -1394,10 +1400,10 @@
         <v>114.99</v>
       </c>
       <c r="D68" s="4">
-        <v>86.946404761904759</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74.943090909090913</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>40695</v>
       </c>
@@ -1408,10 +1414,10 @@
         <v>113.83</v>
       </c>
       <c r="D69" s="4">
-        <v>86.941254545454569</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74.694636363636349</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>40725</v>
       </c>
@@ -1422,10 +1428,10 @@
         <v>116.97</v>
       </c>
       <c r="D70" s="4">
-        <v>86.317804999999993</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74.733999999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>40756</v>
       </c>
@@ -1436,10 +1442,10 @@
         <v>110.22</v>
       </c>
       <c r="D71" s="4">
-        <v>86.898243478260866</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74.238565217391297</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>40787</v>
       </c>
@@ -1450,10 +1456,10 @@
         <v>112.83</v>
       </c>
       <c r="D72" s="4">
-        <v>89.72526666666667</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76.915454545454566</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>40817</v>
       </c>
@@ -1464,10 +1470,10 @@
         <v>109.55</v>
       </c>
       <c r="D73" s="4">
-        <v>90.609844999999993</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77.155904761904765</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>40848</v>
       </c>
@@ -1478,10 +1484,10 @@
         <v>110.77</v>
       </c>
       <c r="D74" s="4">
-        <v>91.264880000000019</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77.957499999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>40878</v>
       </c>
@@ -1492,10 +1498,10 @@
         <v>107.87</v>
       </c>
       <c r="D75" s="4">
-        <v>92.205590476190494</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79.629500000000007</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>40909</v>
       </c>
@@ -1506,10 +1512,10 @@
         <v>110.69</v>
       </c>
       <c r="D76" s="4">
-        <v>91.646265</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80.333045454545427</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>40940</v>
       </c>
@@ -1520,10 +1526,10 @@
         <v>119.33</v>
       </c>
       <c r="D77" s="4">
-        <v>89.96050000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78.953000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>40969</v>
       </c>
@@ -1534,10 +1540,10 @@
         <v>125.45</v>
       </c>
       <c r="D78" s="4">
-        <v>90.511213636363649</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79.558909090909083</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>41000</v>
       </c>
@@ -1548,10 +1554,10 @@
         <v>119.75</v>
       </c>
       <c r="D79" s="4">
-        <v>90.815609523809528</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79.429523809523815</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>41030</v>
       </c>
@@ -1562,10 +1568,10 @@
         <v>110.34</v>
       </c>
       <c r="D80" s="4">
-        <v>92.49278636363637</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80.989086956521746</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>41061</v>
       </c>
@@ -1576,10 +1582,10 @@
         <v>95.16</v>
       </c>
       <c r="D81" s="4">
-        <v>93.880866666666662</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82.244904761904778</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>41091</v>
       </c>
@@ -1590,10 +1596,10 @@
         <v>102.62</v>
       </c>
       <c r="D82" s="4">
-        <v>93.406166666666664</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83.022772727272724</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>41122</v>
       </c>
@@ -1604,10 +1610,10 @@
         <v>113.36</v>
       </c>
       <c r="D83" s="4">
-        <v>92.528265217391294</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82.158608695652177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>41153</v>
       </c>
@@ -1618,10 +1624,10 @@
         <v>112.86</v>
       </c>
       <c r="D84" s="4">
-        <v>90.980199999999996</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79.874650000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>41183</v>
       </c>
@@ -1632,10 +1638,10 @@
         <v>111.71</v>
       </c>
       <c r="D85" s="4">
-        <v>90.756630000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79.737391304347824</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>41214</v>
       </c>
@@ -1646,10 +1652,10 @@
         <v>109.06</v>
       </c>
       <c r="D86" s="4">
-        <v>91.47508000000002</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80.6965</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>41244</v>
       </c>
@@ -1660,10 +1666,10 @@
         <v>109.49</v>
       </c>
       <c r="D87" s="4">
-        <v>90.880390000000006</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79.748857142857162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>41275</v>
       </c>
@@ -1674,10 +1680,10 @@
         <v>112.96</v>
       </c>
       <c r="D88" s="4">
-        <v>90.825514285714291</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79.871173913043492</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>41306</v>
       </c>
@@ -1688,10 +1694,10 @@
         <v>116.05</v>
       </c>
       <c r="D89" s="4">
-        <v>91.550873684210544</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80.602400000000017</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>41334</v>
       </c>
@@ -1702,10 +1708,10 @@
         <v>108.47</v>
       </c>
       <c r="D90" s="4">
-        <v>92.413179999999997</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82.641190476190488</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>41365</v>
       </c>
@@ -1716,10 +1722,10 @@
         <v>102.25</v>
       </c>
       <c r="D91" s="4">
-        <v>92.047822727272717</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82.523454545454541</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>41395</v>
       </c>
@@ -1730,10 +1736,10 @@
         <v>102.56</v>
       </c>
       <c r="D92" s="4">
-        <v>92.5289681818182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83.21582608695654</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>41426</v>
       </c>
@@ -1744,10 +1750,10 @@
         <v>102.92</v>
       </c>
       <c r="D93" s="4">
-        <v>93.283614999999983</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81.873699999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>41456</v>
       </c>
@@ -1758,10 +1764,10 @@
         <v>107.93</v>
       </c>
       <c r="D94" s="4">
-        <v>93.872386363636366</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82.816173913043471</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>41487</v>
       </c>
@@ -1772,10 +1778,10 @@
         <v>111.28</v>
       </c>
       <c r="D95" s="4">
-        <v>93.714886363636367</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81.481590909090926</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>41518</v>
       </c>
@@ -1786,10 +1792,10 @@
         <v>111.6</v>
       </c>
       <c r="D96" s="4">
-        <v>93.470564999999993</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81.206095238095259</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>41548</v>
       </c>
@@ -1800,10 +1806,10 @@
         <v>109.08</v>
       </c>
       <c r="D97" s="4">
-        <v>92.499268181818195</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79.871217391304342</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>41579</v>
       </c>
@@ -1814,10 +1820,10 @@
         <v>107.79</v>
       </c>
       <c r="D98" s="4">
-        <v>93.373668421052614</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80.846190476190515</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>41609</v>
       </c>
@@ -1828,10 +1834,10 @@
         <v>110.76</v>
       </c>
       <c r="D99" s="4">
-        <v>93.534019999999998</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80.324090909090913</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>41640</v>
       </c>
@@ -1842,10 +1848,10 @@
         <v>108.12</v>
       </c>
       <c r="D100" s="4">
-        <v>94.464747619047628</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80.797478260869553</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>41671</v>
       </c>
@@ -1856,10 +1862,10 @@
         <v>108.9</v>
       </c>
       <c r="D101" s="4">
-        <v>94.645582352941176</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80.437300000000022</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>41699</v>
       </c>
@@ -1870,10 +1876,10 @@
         <v>107.48</v>
       </c>
       <c r="D102" s="4">
-        <v>94.440821052631591</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79.871523809523808</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>41730</v>
       </c>
@@ -1884,10 +1890,10 @@
         <v>107.76</v>
       </c>
       <c r="D103" s="4">
-        <v>93.995550000000009</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79.850863636363627</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>41760</v>
       </c>
@@ -1898,10 +1904,10 @@
         <v>109.54</v>
       </c>
       <c r="D104" s="4">
-        <v>93.67002857142856</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79.96390909090907</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>41791</v>
       </c>
@@ -1912,10 +1918,10 @@
         <v>111.8</v>
       </c>
       <c r="D105" s="4">
-        <v>93.827404761904759</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80.440238095238101</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>41821</v>
       </c>
@@ -1926,10 +1932,10 @@
         <v>106.77</v>
       </c>
       <c r="D106" s="4">
-        <v>93.603859090909069</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80.535391304347826</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>41852</v>
       </c>
@@ -1940,10 +1946,10 @@
         <v>101.61</v>
       </c>
       <c r="D107" s="4">
-        <v>94.580809523809535</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81.856238095238112</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>41883</v>
       </c>
@@ -1954,10 +1960,10 @@
         <v>97.09</v>
       </c>
       <c r="D108" s="4">
-        <v>96.120866666666672</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84.365681818181798</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>41913</v>
       </c>
@@ -1968,10 +1974,10 @@
         <v>87.43</v>
       </c>
       <c r="D109" s="4">
-        <v>97.439604545454571</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85.680652173913046</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>41944</v>
       </c>
@@ -1982,10 +1988,10 @@
         <v>79.44</v>
       </c>
       <c r="D110" s="4">
-        <v>99.114688888888907</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87.722149999999985</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>41974</v>
       </c>
@@ -1996,10 +2002,10 @@
         <v>62.34</v>
       </c>
       <c r="D111" s="4">
-        <v>101.44413333333333</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89.191913043478266</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>42005</v>
       </c>
@@ -2010,10 +2016,10 @@
         <v>47.76</v>
       </c>
       <c r="D112" s="4">
-        <v>103.76074000000001</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92.815045454545441</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>42036</v>
       </c>
@@ -2024,10 +2030,10 @@
         <v>58.1</v>
       </c>
       <c r="D113" s="4">
-        <v>105.16853888888889</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94.454599999999985</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>42064</v>
       </c>
@@ -2038,10 +2044,10 @@
         <v>55.89</v>
       </c>
       <c r="D114" s="4">
-        <v>107.36473809523811</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97.897318181818179</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>42095</v>
       </c>
@@ -2052,10 +2058,10 @@
         <v>59.52</v>
       </c>
       <c r="D115" s="4">
-        <v>106.35228181818182</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97.519363636363636</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>42125</v>
       </c>
@@ -2066,10 +2072,10 @@
         <v>64.08</v>
       </c>
       <c r="D116" s="4">
-        <v>105.40651499999998</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95.237142857142842</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>42156</v>
       </c>
@@ -2080,10 +2086,10 @@
         <v>61.48</v>
       </c>
       <c r="D117" s="4">
-        <v>106.17898636363634</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95.168590909090895</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>42186</v>
       </c>
@@ -2094,10 +2100,10 @@
         <v>56.56</v>
       </c>
       <c r="D118" s="4">
-        <v>108.12356818181816</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96.925260869565193</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>42217</v>
       </c>
@@ -2108,10 +2114,10 @@
         <v>46.52</v>
       </c>
       <c r="D119" s="4">
-        <v>109.97674761904761</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96.388095238095232</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>42248</v>
       </c>
@@ -2122,10 +2128,10 @@
         <v>47.62</v>
       </c>
       <c r="D120" s="4">
-        <v>110.85125714285715</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95.814590909090924</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>42278</v>
       </c>
@@ -2136,10 +2142,10 @@
         <v>48.43</v>
       </c>
       <c r="D121" s="4">
-        <v>109.90357142857144</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95.718363636363634</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>42309</v>
       </c>
@@ -2150,10 +2156,10 @@
         <v>44.27</v>
       </c>
       <c r="D122" s="4">
-        <v>111.6916105263158</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99.069571428571464</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>42339</v>
       </c>
@@ -2164,10 +2170,10 @@
         <v>38.01</v>
       </c>
       <c r="D123" s="4">
-        <v>112.7857409090909</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98.314347826086959</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>42370</v>
       </c>
@@ -2178,10 +2184,10 @@
         <v>30.7</v>
       </c>
       <c r="D124" s="4">
-        <v>115.23438750000003</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98.996523809523794</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>42401</v>
       </c>
@@ -2192,10 +2198,10 @@
         <v>32.18</v>
       </c>
       <c r="D125" s="4">
-        <v>114.28173499999998</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97.040761904761894</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>42430</v>
       </c>
@@ -2206,10 +2212,10 @@
         <v>38.21</v>
       </c>
       <c r="D126" s="4">
-        <v>111.89339130434782</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96.259913043478264</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>42461</v>
       </c>
@@ -2220,10 +2226,10 @@
         <v>41.58</v>
       </c>
       <c r="D127" s="4">
-        <v>110.01707619047619</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94.40361904761906</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>42491</v>
       </c>
@@ -2234,10 +2240,10 @@
         <v>46.74</v>
       </c>
       <c r="D128" s="4">
-        <v>111.14051428571426</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94.567909090909083</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>42522</v>
       </c>
@@ -2248,10 +2254,10 @@
         <v>48.25</v>
       </c>
       <c r="D129" s="4">
-        <v>111.5596272727273</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94.635565217391317</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>42552</v>
       </c>
@@ -2262,10 +2268,10 @@
         <v>44.95</v>
       </c>
       <c r="D130" s="4">
-        <v>112.47729</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96.528095238095247</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>42583</v>
       </c>
@@ -2276,10 +2282,10 @@
         <v>45.84</v>
       </c>
       <c r="D131" s="4">
-        <v>111.43836956521741</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95.38039130434781</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>42614</v>
       </c>
@@ -2290,10 +2296,10 @@
         <v>46.57</v>
       </c>
       <c r="D132" s="4">
-        <v>112.31686190476191</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95.479090909090928</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>42644</v>
       </c>
@@ -2304,10 +2310,10 @@
         <v>49.52</v>
       </c>
       <c r="D133" s="4">
-        <v>113.47469499999997</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97.714476190476191</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>42675</v>
       </c>
@@ -2318,10 +2324,10 @@
         <v>44.73</v>
       </c>
       <c r="D134" s="4">
-        <v>116.10751500000001</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99.768181818181816</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>42705</v>
       </c>
@@ -2332,10 +2338,10 @@
         <v>53.31</v>
       </c>
       <c r="D135" s="4">
-        <v>117.90482857142855</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102.04136363636363</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>42736</v>
       </c>
@@ -2346,10 +2352,10 @@
         <v>54.58</v>
       </c>
       <c r="D136" s="4">
-        <v>117.78607894736845</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101.20236363636364</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>42767</v>
       </c>
@@ -2360,10 +2366,10 @@
         <v>54.87</v>
       </c>
       <c r="D137" s="4">
-        <v>116.12033684210526</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100.6953</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>42795</v>
       </c>
@@ -2374,10 +2380,10 @@
         <v>51.59</v>
       </c>
       <c r="D138" s="4">
-        <v>115.65538260869566</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100.75969565217389</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>42826</v>
       </c>
@@ -2388,10 +2394,10 @@
         <v>52.31</v>
       </c>
       <c r="D139" s="4">
-        <v>114.76978500000003</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100.07250000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>42856</v>
       </c>
@@ -2402,10 +2408,10 @@
         <v>50.33</v>
       </c>
       <c r="D140" s="4">
-        <v>114.26073181818184</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98.238608695652189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>42887</v>
       </c>
@@ -2416,10 +2422,10 @@
         <v>46.37</v>
       </c>
       <c r="D141" s="4">
-        <v>112.76137272727274</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96.943045454545441</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>42917</v>
       </c>
@@ -2430,10 +2436,10 @@
         <v>48.48</v>
       </c>
       <c r="D142" s="4">
-        <v>111.06173500000003</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94.915857142857149</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>42948</v>
       </c>
@@ -2444,10 +2450,10 @@
         <v>51.7</v>
       </c>
       <c r="D143" s="4">
-        <v>109.90734782608695</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93.175217391304358</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>42979</v>
       </c>
@@ -2458,10 +2464,10 @@
         <v>56.15</v>
       </c>
       <c r="D144" s="4">
-        <v>108.85588500000001</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92.373681818181822</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>43009</v>
       </c>
@@ -2472,10 +2478,10 @@
         <v>57.51</v>
       </c>
       <c r="D145" s="4">
-        <v>110.89130476190478</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93.708227272727285</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>43040</v>
       </c>
@@ -2486,10 +2492,10 @@
         <v>62.71</v>
       </c>
       <c r="D146" s="4">
-        <v>111.165785</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93.962499999999991</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>43070</v>
       </c>
@@ -2500,10 +2506,10 @@
         <v>64.37</v>
       </c>
       <c r="D147" s="4">
-        <v>110.87863</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93.381142857142876</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>43101</v>
       </c>
@@ -2514,10 +2520,10 @@
         <v>69.08</v>
       </c>
       <c r="D148" s="4">
-        <v>108.36004761904762</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90.816173913043471</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>43132</v>
       </c>
@@ -2528,10 +2534,10 @@
         <v>65.319999999999993</v>
       </c>
       <c r="D149" s="4">
-        <v>107.65337368421052</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89.695599999999985</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>43160</v>
       </c>
@@ -2542,10 +2548,10 @@
         <v>66.02</v>
       </c>
       <c r="D150" s="4">
-        <v>107.950605</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89.877272727272725</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>43191</v>
       </c>
@@ -2556,10 +2562,10 @@
         <v>72.11</v>
       </c>
       <c r="D151" s="4">
-        <v>107.94613809523811</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90.349818181818165</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>43221</v>
       </c>
@@ -2570,10 +2576,10 @@
         <v>76.98</v>
       </c>
       <c r="D152" s="4">
-        <v>111.04937727272726</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93.336304347826086</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>43252</v>
       </c>
@@ -2584,10 +2590,10 @@
         <v>74.41</v>
       </c>
       <c r="D153" s="4">
-        <v>112.84701904761906</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94.333909090909117</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>43282</v>
       </c>
@@ -2598,10 +2604,10 @@
         <v>74.25</v>
       </c>
       <c r="D154" s="4">
-        <v>113.06286666666668</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94.609590909090912</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>43313</v>
       </c>
@@ -2612,10 +2618,10 @@
         <v>72.53</v>
       </c>
       <c r="D155" s="4">
-        <v>113.83435217391306</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95.48047826086956</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>43344</v>
       </c>
@@ -2626,10 +2632,10 @@
         <v>78.89</v>
       </c>
       <c r="D156" s="4">
-        <v>114.08177368421052</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94.756700000000023</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>43374</v>
       </c>
@@ -2640,10 +2646,10 @@
         <v>81.03</v>
       </c>
       <c r="D157" s="4">
-        <v>114.83369090909088</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95.851086956521726</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>43405</v>
       </c>
@@ -2654,10 +2660,10 @@
         <v>64.75</v>
       </c>
       <c r="D158" s="4">
-        <v>116.17139999999999</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96.760409090909079</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>43435</v>
       </c>
@@ -2668,10 +2674,10 @@
         <v>57.36</v>
       </c>
       <c r="D159" s="4">
-        <v>116.21466842105261</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96.852086956521731</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>43466</v>
       </c>
@@ -2682,10 +2688,10 @@
         <v>59.41</v>
       </c>
       <c r="D160" s="4">
-        <v>114.44390000000001</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95.966260869565218</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>43497</v>
       </c>
@@ -2696,10 +2702,10 @@
         <v>63.96</v>
       </c>
       <c r="D161" s="4">
-        <v>114.41411111111113</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96.477761904761905</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>43525</v>
       </c>
@@ -2710,10 +2716,10 @@
         <v>66.14</v>
       </c>
       <c r="D162" s="4">
-        <v>114.7857619047619</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96.779857142857168</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>43556</v>
       </c>
@@ -2724,10 +2730,10 @@
         <v>71.23</v>
       </c>
       <c r="D163" s="4">
-        <v>114.90592727272728</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97.364772727272737</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>43586</v>
       </c>
@@ -2738,10 +2744,10 @@
         <v>71.319999999999993</v>
       </c>
       <c r="D164" s="4">
-        <v>115.96051818181817</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97.733782608695648</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>43617</v>
       </c>
@@ -2752,10 +2758,10 @@
         <v>64.22</v>
       </c>
       <c r="D165" s="4">
-        <v>115.43132499999999</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96.799000000000007</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>43647</v>
       </c>
@@ -2766,10 +2772,10 @@
         <v>63.92</v>
       </c>
       <c r="D166" s="4">
-        <v>115.08204545454547</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97.341478260869579</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>43678</v>
       </c>
@@ -2780,10 +2786,10 @@
         <v>59.04</v>
       </c>
       <c r="D167" s="4">
-        <v>117.10523181818185</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98.003090909090915</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>43709</v>
       </c>
@@ -2794,10 +2800,10 @@
         <v>62.83</v>
       </c>
       <c r="D168" s="4">
-        <v>117.32881499999999</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98.6095714285714</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>43739</v>
       </c>
@@ -2808,10 +2814,10 @@
         <v>59.71</v>
       </c>
       <c r="D169" s="4">
-        <v>116.75106363636364</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98.19745833333333</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>43770</v>
       </c>
@@ -2822,10 +2828,10 @@
         <v>63.21</v>
       </c>
       <c r="D170" s="4">
-        <v>116.56367368421056</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98.078761904761905</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>43800</v>
       </c>
@@ -2836,10 +2842,10 @@
         <v>67.31</v>
       </c>
       <c r="D171" s="4">
-        <v>115.91388500000001</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97.377863636363642</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>43831</v>
       </c>
@@ -2850,10 +2856,10 @@
         <v>63.65</v>
       </c>
       <c r="D172" s="4">
-        <v>115.28190476190478</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97.399521739130435</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>43862</v>
       </c>
@@ -2864,10 +2870,10 @@
         <v>55.66</v>
       </c>
       <c r="D173" s="4">
-        <v>116.71380526315788</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98.876047619047611</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>43891</v>
       </c>
@@ -2878,10 +2884,10 @@
         <v>32.01</v>
       </c>
       <c r="D174" s="4">
-        <v>121.02455454545454</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98.84322727272729</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>43922</v>
       </c>
@@ -2892,10 +2898,10 @@
         <v>18.38</v>
       </c>
       <c r="D175" s="4">
-        <v>123.28346818181818</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99.889590909090899</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>43952</v>
       </c>
@@ -2906,10 +2912,10 @@
         <v>29.38</v>
       </c>
       <c r="D176" s="4">
-        <v>122.61873500000004</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99.581809523809511</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>43983</v>
       </c>
@@ -2920,10 +2926,10 @@
         <v>40.270000000000003</v>
       </c>
       <c r="D177" s="4">
-        <v>119.68094090909089</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97.106826086956517</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>44013</v>
       </c>
@@ -2934,10 +2940,10 @@
         <v>43.24</v>
       </c>
       <c r="D178" s="4">
-        <v>118.69559545454545</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95.583217391304359</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>44044</v>
       </c>
@@ -2948,10 +2954,10 @@
         <v>44.74</v>
       </c>
       <c r="D179" s="4">
-        <v>116.95257142857145</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93.046999999999997</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>44075</v>
       </c>
@@ -2962,10 +2968,10 @@
         <v>40.909999999999997</v>
       </c>
       <c r="D180" s="4">
-        <v>116.34884761904762</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93.463869565217379</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>44105</v>
       </c>
@@ -2976,10 +2982,10 @@
         <v>40.19</v>
       </c>
       <c r="D181" s="4">
-        <v>115.78389523809525</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93.398590909090913</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>44136</v>
       </c>
@@ -2990,10 +2996,10 @@
         <v>42.69</v>
       </c>
       <c r="D182" s="4">
-        <v>114.09983333333334</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92.595999999999989</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>44166</v>
       </c>
@@ -3004,10 +3010,10 @@
         <v>49.99</v>
       </c>
       <c r="D183" s="4">
-        <v>111.90164285714285</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90.507217391304351</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>44197</v>
       </c>
@@ -3018,10 +3024,10 @@
         <v>54.77</v>
       </c>
       <c r="D184" s="4">
-        <v>111.49137777777779</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90.236857142857147</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>44228</v>
       </c>
@@ -3032,10 +3038,10 @@
         <v>62.28</v>
       </c>
       <c r="D185" s="4">
-        <v>112.02478947368421</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90.628</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>44256</v>
       </c>
@@ -3046,10 +3052,10 @@
         <v>65.41</v>
       </c>
       <c r="D186" s="4">
-        <v>113.34895217391305</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91.994173913043483</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>44287</v>
       </c>
@@ -3060,10 +3066,10 @@
         <v>64.81</v>
       </c>
       <c r="D187" s="4">
-        <v>112.64088181818182</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91.618217391304356</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>44317</v>
       </c>
@@ -3074,10 +3080,10 @@
         <v>68.53</v>
       </c>
       <c r="D188" s="4">
-        <v>111.22630999999998</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90.30247619047617</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>44348</v>
       </c>
@@ -3088,10 +3094,10 @@
         <v>73.16</v>
       </c>
       <c r="D189" s="4">
-        <v>111.58851363636367</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91.043590909090881</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>44378</v>
       </c>
@@ -3102,10 +3108,10 @@
         <v>75.17</v>
       </c>
       <c r="D190" s="4">
-        <v>113.06898095238095</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92.513590909090908</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>44409</v>
       </c>
@@ -3116,10 +3122,10 @@
         <v>70.75</v>
       </c>
       <c r="D191" s="4">
-        <v>113.40918636363639</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92.79904545454545</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>44440</v>
       </c>
@@ -3130,10 +3136,10 @@
         <v>74.489999999999995</v>
       </c>
       <c r="D192" s="4">
-        <v>113.44822857142856</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92.93669565217391</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>44470</v>
       </c>
@@ -3144,10 +3150,10 @@
         <v>83.54</v>
       </c>
       <c r="D193" s="4">
-        <v>114.07398000000001</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93.944285714285712</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>44501</v>
       </c>
@@ -3158,10 +3164,10 @@
         <v>81.05</v>
       </c>
       <c r="D194" s="4">
-        <v>115.001565</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95.340772727272721</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>44531</v>
       </c>
@@ -3172,10 +3178,10 @@
         <v>74.17</v>
       </c>
       <c r="D195" s="4">
-        <v>115.81335714285717</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96.199217391304344</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>44562</v>
       </c>
@@ -3186,10 +3192,10 @@
         <v>86.51</v>
       </c>
       <c r="D196" s="4">
-        <v>115.04962499999999</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95.909545454545466</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>44593</v>
       </c>
@@ -3200,10 +3206,10 @@
         <v>97.13</v>
       </c>
       <c r="D197" s="4">
-        <v>115.01305263157894</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96.000749999999996</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>44621</v>
       </c>
@@ -3214,10 +3220,10 @@
         <v>117.25</v>
       </c>
       <c r="D198" s="4">
-        <v>116.36742173913044</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98.473565217391283</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>44652</v>
       </c>
@@ -3228,10 +3234,10 @@
         <v>104.58</v>
       </c>
       <c r="D199" s="4">
-        <v>117.17941428571427</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100.69104761904762</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>44682</v>
       </c>
@@ -3242,10 +3248,10 @@
         <v>113.34</v>
       </c>
       <c r="D200" s="4">
-        <v>119.66495714285713</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103.09890909090909</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>44713</v>
       </c>
@@ -3256,10 +3262,10 @@
         <v>122.71</v>
       </c>
       <c r="D201" s="4">
-        <v>119.96283809523811</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103.88177272727272</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>44743</v>
       </c>
@@ -3270,10 +3276,10 @@
         <v>111.93</v>
       </c>
       <c r="D202" s="4">
-        <v>122.648325</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106.94490476190478</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>44774</v>
       </c>
@@ -3284,10 +3290,10 @@
         <v>100.45</v>
       </c>
       <c r="D203" s="4">
-        <v>122.23727826086956</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107.14947826086957</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>44805</v>
       </c>
@@ -3298,10 +3304,10 @@
         <v>89.76</v>
       </c>
       <c r="D204" s="4">
-        <v>125.50693333333332</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110.702</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>44835</v>
       </c>
@@ -3312,10 +3318,10 @@
         <v>93.33</v>
       </c>
       <c r="D205" s="4">
-        <v>127.40840499999999</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111.94509523809525</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>44866</v>
       </c>
@@ -3326,10 +3332,10 @@
         <v>91.42</v>
       </c>
       <c r="D206" s="4">
-        <v>124.81488500000003</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108.0349090909091</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>44896</v>
       </c>
@@ -3340,10 +3346,10 @@
         <v>80.92</v>
       </c>
       <c r="D207" s="4">
-        <v>122.20212857142856</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104.49422727272727</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>44927</v>
       </c>
@@ -3354,10 +3360,10 @@
         <v>82.5</v>
       </c>
       <c r="D208" s="4">
-        <v>119.77648499999998</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102.77784782608695</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>44958</v>
       </c>
@@ -3368,10 +3374,10 @@
         <v>82.59</v>
       </c>
       <c r="D209" s="4">
-        <v>120.31560526315791</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103.67828571428572</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>44986</v>
       </c>
@@ -3382,10 +3388,10 @@
         <v>78.430000000000007</v>
       </c>
       <c r="D210" s="4">
-        <v>120.80600434782612</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103.73862499999997</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>45017</v>
       </c>
@@ -3396,10 +3402,10 @@
         <v>84.64</v>
       </c>
       <c r="D211" s="4">
-        <v>119.41827999999998</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101.78040000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>45047</v>
       </c>
@@ -3410,35 +3416,175 @@
         <v>75.47</v>
       </c>
       <c r="D212" s="4">
-        <v>119.8552090909091</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102.77000000000002</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>45078</v>
       </c>
       <c r="B213" s="3">
-        <v>4233.9459999999999</v>
+        <v>4191.677391304348</v>
       </c>
       <c r="C213" s="4">
         <v>74.84</v>
       </c>
       <c r="D213" s="4">
-        <v>119.71037142857142</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103.04378260869565</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>45108</v>
       </c>
       <c r="B214" s="3">
-        <v>4163.5028571428575</v>
+        <v>4048.2304761904761</v>
       </c>
       <c r="C214" s="4">
-        <v>79.39</v>
+        <v>80.11</v>
       </c>
       <c r="D214" s="4">
-        <v>119.88460000000001</v>
+        <v>101.40315238095238</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B215" s="3">
+        <v>4073.9391304347828</v>
+      </c>
+      <c r="C215" s="4">
+        <v>86.15</v>
+      </c>
+      <c r="D215" s="4">
+        <v>103.10286956521743</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B216" s="3">
+        <v>4005.7181818181812</v>
+      </c>
+      <c r="C216" s="4">
+        <v>93.72</v>
+      </c>
+      <c r="D216" s="4">
+        <v>105.29150000000003</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B217" s="3">
+        <v>4217.8736363636363</v>
+      </c>
+      <c r="C217" s="4">
+        <v>90.6</v>
+      </c>
+      <c r="D217" s="4">
+        <v>106.35481818181819</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="2">
+        <v>45231</v>
+      </c>
+      <c r="B218" s="3">
+        <v>4026.5904545454546</v>
+      </c>
+      <c r="C218" s="4">
+        <v>82.94</v>
+      </c>
+      <c r="D218" s="4">
+        <v>104.49</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B219" s="3">
+        <v>3964.72</v>
+      </c>
+      <c r="C219" s="4">
+        <v>77.63</v>
+      </c>
+      <c r="D219" s="4">
+        <v>102.64</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B220" s="3">
+        <v>3915.336956521739</v>
+      </c>
+      <c r="C220" s="4">
+        <v>80.12</v>
+      </c>
+      <c r="D220" s="4">
+        <v>102.88</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B221" s="3">
+        <v>3926.6786363636361</v>
+      </c>
+      <c r="C221" s="4">
+        <v>83.48</v>
+      </c>
+      <c r="D221" s="4">
+        <v>104.13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B222" s="3">
+        <v>3895.5733333333328</v>
+      </c>
+      <c r="C222" s="4">
+        <v>85.41</v>
+      </c>
+      <c r="D222" s="4">
+        <v>103.67</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B223" s="3">
+        <v>3862.4481818181816</v>
+      </c>
+      <c r="C223" s="4">
+        <v>89.94</v>
+      </c>
+      <c r="D223" s="4">
+        <v>105.41</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B224" s="3">
+        <v>3863.3773913043483</v>
+      </c>
+      <c r="C224" s="4">
+        <v>81.75</v>
+      </c>
+      <c r="D224" s="4">
+        <v>104.95</v>
       </c>
     </row>
   </sheetData>

--- a/Datos_ent/Base.xlsx
+++ b/Datos_ent/Base.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bancolombia-my.sharepoint.com/personal/arygonza_bancolombia_com_co/Documents/Bancolombia_ARGO/Bancolombia_Argo2024/Personales/Econometria_Uext/VAR_Models/Datos_ent/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arygonza\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{B4C453B1-312D-42C1-B027-1CF5D40688D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD4D9B36-245C-4A3B-8FA6-1FD426E64059}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433BC118-F865-4EF6-A1E5-DEF498E0CCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{F7DE5675-7431-4D40-AC4D-5D3792C506F0}"/>
   </bookViews>
@@ -37,12 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Fuente:</t>
-  </si>
-  <si>
-    <t>https://fred.stlouisfed.org/series/MCOILBRENTEU</t>
   </si>
   <si>
     <t>Brent</t>
@@ -54,12 +51,6 @@
     <t>DXY</t>
   </si>
   <si>
-    <t>https://fred.stlouisfed.org/series/DTWEXBGS</t>
-  </si>
-  <si>
-    <t>https://www.banrep.gov.co/es/estadisticas/trm</t>
-  </si>
-  <si>
     <t>fecha</t>
   </si>
   <si>
@@ -69,16 +60,7 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>Acceso gratis al EMBI</t>
-  </si>
-  <si>
     <t>Fuente: FRED, BLS y EIA-STEO</t>
-  </si>
-  <si>
-    <t>Industrial Production: Total Index (INDPRO) | FRED | St. Louis Fed (stlouisfed.org)</t>
-  </si>
-  <si>
-    <t>https://data.bls.gov/timeseries/CUUR0000SA0?years_option=all_years</t>
   </si>
   <si>
     <t>Proyecciones:</t>
@@ -96,13 +78,25 @@
     <t>CPI_EEUU</t>
   </si>
   <si>
-    <t>NOAA</t>
+    <t>CPI_Index</t>
   </si>
   <si>
-    <t>CPC</t>
+    <t>Banrep</t>
   </si>
   <si>
-    <t>CPI_Index</t>
+    <t>FRED</t>
+  </si>
+  <si>
+    <t>Invenomica</t>
+  </si>
+  <si>
+    <t>BLS</t>
+  </si>
+  <si>
+    <t>EBP</t>
+  </si>
+  <si>
+    <t>Diligenciar</t>
   </si>
 </sst>
 </file>
@@ -113,7 +107,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,8 +171,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,12 +196,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,7 +225,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -256,12 +252,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -285,9 +282,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -325,7 +322,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -431,7 +428,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -573,7 +570,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -581,52 +578,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06AA51F-FD66-422B-8077-68ED66061B9A}">
-  <dimension ref="A1:E321"/>
+  <dimension ref="A1:F325"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B297" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B300" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E321" sqref="E321"/>
+      <selection pane="bottomRight" activeCell="A325" sqref="A325"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>35796</v>
       </c>
@@ -642,8 +645,11 @@
       <c r="E4" s="4">
         <v>316.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="4">
+        <v>134.88771294798002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>35827</v>
       </c>
@@ -659,8 +665,11 @@
       <c r="E5" s="4">
         <v>287</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="4">
+        <v>131.77899633738801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>35855</v>
       </c>
@@ -676,8 +685,11 @@
       <c r="E6" s="4">
         <v>271.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="4">
+        <v>129.93012864624001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>35886</v>
       </c>
@@ -693,8 +705,11 @@
       <c r="E7" s="4">
         <v>294.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="4">
+        <v>121.00011591922699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>35916</v>
       </c>
@@ -710,8 +725,11 @@
       <c r="E8" s="4">
         <v>313.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="4">
+        <v>121.13056221979099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>35947</v>
       </c>
@@ -727,8 +745,11 @@
       <c r="E9" s="4">
         <v>376.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="4">
+        <v>131.270143964113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>35977</v>
       </c>
@@ -744,8 +765,11 @@
       <c r="E10" s="4">
         <v>370.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="4">
+        <v>136.294793630573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>36008</v>
       </c>
@@ -761,8 +785,11 @@
       <c r="E11" s="4">
         <v>518</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="4">
+        <v>199.98726836895301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>36039</v>
       </c>
@@ -778,8 +805,11 @@
       <c r="E12" s="4">
         <v>949.75</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="4">
+        <v>211.87018256452501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>36069</v>
       </c>
@@ -795,8 +825,11 @@
       <c r="E13" s="4">
         <v>874</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="4">
+        <v>225.85593273420801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>36100</v>
       </c>
@@ -812,8 +845,11 @@
       <c r="E14" s="4">
         <v>572</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="4">
+        <v>199.69700129240999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>36130</v>
       </c>
@@ -829,8 +865,11 @@
       <c r="E15" s="4">
         <v>666.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="4">
+        <v>195.409073579069</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>36161</v>
       </c>
@@ -846,8 +885,11 @@
       <c r="E16" s="4">
         <v>643.20000000000005</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="4">
+        <v>191.22936908183198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>36192</v>
       </c>
@@ -863,8 +905,11 @@
       <c r="E17" s="4">
         <v>601.75</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="4">
+        <v>178.290927187807</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>36220</v>
       </c>
@@ -880,8 +925,11 @@
       <c r="E18" s="4">
         <v>564.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="4">
+        <v>167.37158382498899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>36251</v>
       </c>
@@ -897,8 +945,11 @@
       <c r="E19" s="4">
         <v>469.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="4">
+        <v>162.14965015049401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>36281</v>
       </c>
@@ -914,8 +965,11 @@
       <c r="E20" s="4">
         <v>553.25</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="4">
+        <v>165.58532960332698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>36312</v>
       </c>
@@ -931,8 +985,11 @@
       <c r="E21" s="4">
         <v>675</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="4">
+        <v>169.606492746691</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>36342</v>
       </c>
@@ -948,8 +1005,11 @@
       <c r="E22" s="4">
         <v>675.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="4">
+        <v>175.41497126855199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>36373</v>
       </c>
@@ -965,8 +1025,11 @@
       <c r="E23" s="4">
         <v>694.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="4">
+        <v>196.66456036776</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>36404</v>
       </c>
@@ -982,8 +1045,11 @@
       <c r="E24" s="4">
         <v>659.75</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="4">
+        <v>202.76021435491901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>36434</v>
       </c>
@@ -999,8 +1065,11 @@
       <c r="E25" s="4">
         <v>576.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="4">
+        <v>209.371540790936</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>36465</v>
       </c>
@@ -1016,8 +1085,11 @@
       <c r="E26" s="4">
         <v>545.25</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="4">
+        <v>204.524467377717</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>36495</v>
       </c>
@@ -1033,8 +1105,11 @@
       <c r="E27" s="4">
         <v>460.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="4">
+        <v>186.33514807095099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>36526</v>
       </c>
@@ -1050,8 +1125,11 @@
       <c r="E28" s="4">
         <v>445</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" s="4">
+        <v>195.03208316579901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>36557</v>
       </c>
@@ -1067,8 +1145,11 @@
       <c r="E29" s="4">
         <v>469.25</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" s="4">
+        <v>212.24694979984901</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>36586</v>
       </c>
@@ -1084,8 +1165,11 @@
       <c r="E30" s="4">
         <v>523.20000000000005</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" s="4">
+        <v>247.468679820251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>36617</v>
       </c>
@@ -1101,8 +1185,11 @@
       <c r="E31" s="4">
         <v>675</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" s="4">
+        <v>263.65782320223201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>36647</v>
       </c>
@@ -1118,8 +1205,11 @@
       <c r="E32" s="4">
         <v>810.75</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" s="4">
+        <v>280.51403611200601</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>36678</v>
       </c>
@@ -1135,8 +1225,11 @@
       <c r="E33" s="4">
         <v>716.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="4">
+        <v>281.57409003926398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>36708</v>
       </c>
@@ -1152,8 +1245,11 @@
       <c r="E34" s="4">
         <v>702</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" s="4">
+        <v>294.03926536598897</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>36739</v>
       </c>
@@ -1169,8 +1265,11 @@
       <c r="E35" s="4">
         <v>691.25</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" s="4">
+        <v>306.41640628183404</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>36770</v>
       </c>
@@ -1186,8 +1285,11 @@
       <c r="E36" s="4">
         <v>712.6</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" s="4">
+        <v>322.142968732263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>36800</v>
       </c>
@@ -1203,8 +1305,11 @@
       <c r="E37" s="4">
         <v>760.25</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" s="4">
+        <v>366.57305330249699</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>36831</v>
       </c>
@@ -1220,8 +1325,11 @@
       <c r="E38" s="4">
         <v>794.75</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" s="4">
+        <v>376.79453025704402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>36861</v>
       </c>
@@ -1237,8 +1345,11 @@
       <c r="E39" s="4">
         <v>767.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" s="4">
+        <v>378.662767969691</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>36892</v>
       </c>
@@ -1254,8 +1365,11 @@
       <c r="E40" s="4">
         <v>723.75</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" s="4">
+        <v>339.879430303042</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>36923</v>
       </c>
@@ -1271,8 +1385,11 @@
       <c r="E41" s="4">
         <v>644.25</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" s="4">
+        <v>332.02590460397602</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>36951</v>
       </c>
@@ -1288,8 +1405,11 @@
       <c r="E42" s="4">
         <v>633.6</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" s="4">
+        <v>327.53228810280598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>36982</v>
       </c>
@@ -1305,8 +1425,11 @@
       <c r="E43" s="4">
         <v>625</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" s="4">
+        <v>319.920476683049</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <v>37012</v>
       </c>
@@ -1322,8 +1445,11 @@
       <c r="E44" s="4">
         <v>588.25</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" s="4">
+        <v>299.40945491673097</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <v>37043</v>
       </c>
@@ -1339,8 +1465,11 @@
       <c r="E45" s="4">
         <v>572</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" s="4">
+        <v>309.08823417484103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
         <v>37073</v>
       </c>
@@ -1356,8 +1485,11 @@
       <c r="E46" s="4">
         <v>564</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" s="4">
+        <v>303.08253365345104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
         <v>37104</v>
       </c>
@@ -1373,8 +1505,11 @@
       <c r="E47" s="4">
         <v>529.6</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" s="4">
+        <v>301.74429763564899</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
         <v>37135</v>
       </c>
@@ -1390,8 +1525,11 @@
       <c r="E48" s="4">
         <v>599.75</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" s="4">
+        <v>353.42549599259002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
         <v>37165</v>
       </c>
@@ -1407,8 +1545,11 @@
       <c r="E49" s="4">
         <v>593.25</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" s="4">
+        <v>343.32289292919</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
         <v>37196</v>
       </c>
@@ -1424,8 +1565,11 @@
       <c r="E50" s="4">
         <v>555.20000000000005</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" s="4">
+        <v>297.960908426657</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
         <v>37226</v>
       </c>
@@ -1441,8 +1585,11 @@
       <c r="E51" s="4">
         <v>494.75</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" s="4">
+        <v>289.486304023532</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
         <v>37257</v>
       </c>
@@ -1458,8 +1605,11 @@
       <c r="E52" s="4">
         <v>538.25</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" s="4">
+        <v>292.67066033984401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <v>37288</v>
       </c>
@@ -1475,8 +1625,11 @@
       <c r="E53" s="4">
         <v>579</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" s="4">
+        <v>296.122493475537</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
         <v>37316</v>
       </c>
@@ -1492,8 +1645,11 @@
       <c r="E54" s="4">
         <v>538.79999999999995</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" s="4">
+        <v>261.27386599998198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="2">
         <v>37347</v>
       </c>
@@ -1509,8 +1665,11 @@
       <c r="E55" s="4">
         <v>549.25</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" s="4">
+        <v>264.966908324587</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="2">
         <v>37377</v>
       </c>
@@ -1526,8 +1685,11 @@
       <c r="E56" s="4">
         <v>546.6</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" s="4">
+        <v>272.66109720343098</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="2">
         <v>37408</v>
       </c>
@@ -1543,8 +1705,11 @@
       <c r="E57" s="4">
         <v>579.75</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" s="4">
+        <v>326.15351769522397</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="2">
         <v>37438</v>
       </c>
@@ -1560,8 +1725,11 @@
       <c r="E58" s="4">
         <v>676.75</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" s="4">
+        <v>405.76144734480499</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="2">
         <v>37469</v>
       </c>
@@ -1577,8 +1745,11 @@
       <c r="E59" s="4">
         <v>869</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" s="4">
+        <v>393.41303293664498</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="2">
         <v>37500</v>
       </c>
@@ -1594,8 +1765,11 @@
       <c r="E60" s="4">
         <v>989.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" s="4">
+        <v>426.37559553088505</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="2">
         <v>37530</v>
       </c>
@@ -1611,8 +1785,11 @@
       <c r="E61" s="4">
         <v>946.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" s="4">
+        <v>430.92431957868297</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="2">
         <v>37561</v>
       </c>
@@ -1628,8 +1805,11 @@
       <c r="E62" s="4">
         <v>741.6</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" s="4">
+        <v>375.439937910796</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="2">
         <v>37591</v>
       </c>
@@ -1645,8 +1825,11 @@
       <c r="E63" s="4">
         <v>652.25</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" s="4">
+        <v>365.29048800724098</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="2">
         <v>37622</v>
       </c>
@@ -1662,8 +1845,11 @@
       <c r="E64" s="4">
         <v>636.20000000000005</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" s="4">
+        <v>354.27627570077601</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="2">
         <v>37653</v>
       </c>
@@ -1679,8 +1865,11 @@
       <c r="E65" s="4">
         <v>680.75</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" s="4">
+        <v>342.495387777453</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="2">
         <v>37681</v>
       </c>
@@ -1696,8 +1885,11 @@
       <c r="E66" s="4">
         <v>619.75</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" s="4">
+        <v>318.7691969617</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="2">
         <v>37712</v>
       </c>
@@ -1713,8 +1905,11 @@
       <c r="E67" s="4">
         <v>534.25</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67" s="4">
+        <v>271.38383298786903</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="2">
         <v>37742</v>
       </c>
@@ -1730,8 +1925,11 @@
       <c r="E68" s="4">
         <v>463.2</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" s="4">
+        <v>279.58014065957599</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="2">
         <v>37773</v>
       </c>
@@ -1747,8 +1945,11 @@
       <c r="E69" s="4">
         <v>455.75</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69" s="4">
+        <v>253.05420888416501</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="2">
         <v>37803</v>
       </c>
@@ -1764,8 +1965,11 @@
       <c r="E70" s="4">
         <v>467.25</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" s="4">
+        <v>242.98908380653299</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="2">
         <v>37834</v>
       </c>
@@ -1781,8 +1985,11 @@
       <c r="E71" s="4">
         <v>451.4</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71" s="4">
+        <v>238.40607384222801</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="2">
         <v>37865</v>
       </c>
@@ -1798,8 +2005,11 @@
       <c r="E72" s="4">
         <v>429.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" s="4">
+        <v>241.63585675112503</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="2">
         <v>37895</v>
       </c>
@@ -1815,8 +2025,11 @@
       <c r="E73" s="4">
         <v>446</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73" s="4">
+        <v>209.575670354804</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="2">
         <v>37926</v>
       </c>
@@ -1832,8 +2045,11 @@
       <c r="E74" s="4">
         <v>467</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74" s="4">
+        <v>200.16541560655</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="2">
         <v>37956</v>
       </c>
@@ -1849,8 +2065,11 @@
       <c r="E75" s="4">
         <v>446.75</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75" s="4">
+        <v>190.907785958652</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="2">
         <v>37987</v>
       </c>
@@ -1866,8 +2085,11 @@
       <c r="E76" s="4">
         <v>395.4</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" s="4">
+        <v>178.31847060063399</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="2">
         <v>38018</v>
       </c>
@@ -1883,8 +2105,11 @@
       <c r="E77" s="4">
         <v>436.25</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77" s="4">
+        <v>191.79989333827601</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="2">
         <v>38047</v>
       </c>
@@ -1900,8 +2125,11 @@
       <c r="E78" s="4">
         <v>400.75</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78" s="4">
+        <v>192.909951732548</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="2">
         <v>38078</v>
       </c>
@@ -1917,8 +2145,11 @@
       <c r="E79" s="4">
         <v>383</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79" s="4">
+        <v>176.337252053171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="2">
         <v>38108</v>
       </c>
@@ -1934,8 +2165,11 @@
       <c r="E80" s="4">
         <v>532.25</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80" s="4">
+        <v>190.953927574875</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="2">
         <v>38139</v>
       </c>
@@ -1951,8 +2185,11 @@
       <c r="E81" s="4">
         <v>485.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81" s="4">
+        <v>181.67714725292501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="2">
         <v>38169</v>
       </c>
@@ -1968,8 +2205,11 @@
       <c r="E82" s="4">
         <v>454.2</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82" s="4">
+        <v>174.660000460296</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="2">
         <v>38200</v>
       </c>
@@ -1985,8 +2225,11 @@
       <c r="E83" s="4">
         <v>424.25</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83" s="4">
+        <v>187.242376280435</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="2">
         <v>38231</v>
       </c>
@@ -2002,8 +2245,11 @@
       <c r="E84" s="4">
         <v>395.75</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84" s="4">
+        <v>176.016273683919</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="2">
         <v>38261</v>
       </c>
@@ -2019,8 +2265,11 @@
       <c r="E85" s="4">
         <v>399.4</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85" s="4">
+        <v>175.30392573190301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="2">
         <v>38292</v>
       </c>
@@ -2036,8 +2285,11 @@
       <c r="E86" s="4">
         <v>356</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86" s="4">
+        <v>154.383348659463</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="2">
         <v>38322</v>
       </c>
@@ -2053,8 +2305,11 @@
       <c r="E87" s="4">
         <v>345</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87" s="4">
+        <v>147.264771259691</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="2">
         <v>38353</v>
       </c>
@@ -2070,8 +2325,11 @@
       <c r="E88" s="4">
         <v>363.25</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88" s="4">
+        <v>171.255538112018</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="2">
         <v>38384</v>
       </c>
@@ -2087,8 +2345,11 @@
       <c r="E89" s="4">
         <v>353.75</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89" s="4">
+        <v>156.67747162393098</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="2">
         <v>38412</v>
       </c>
@@ -2104,8 +2365,11 @@
       <c r="E90" s="4">
         <v>371</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90" s="4">
+        <v>186.07730354249901</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="2">
         <v>38443</v>
       </c>
@@ -2121,8 +2385,11 @@
       <c r="E91" s="4">
         <v>409.8</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91" s="4">
+        <v>214.68177350134599</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="2">
         <v>38473</v>
       </c>
@@ -2138,8 +2405,11 @@
       <c r="E92" s="4">
         <v>368.75</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92" s="4">
+        <v>211.715642229536</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="2">
         <v>38504</v>
       </c>
@@ -2155,8 +2425,11 @@
       <c r="E93" s="4">
         <v>339.25</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93" s="4">
+        <v>196.55317999452501</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="2">
         <v>38534</v>
       </c>
@@ -2172,8 +2445,11 @@
       <c r="E94" s="4">
         <v>320.8</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94" s="4">
+        <v>172.49175111030098</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="2">
         <v>38565</v>
       </c>
@@ -2189,8 +2465,11 @@
       <c r="E95" s="4">
         <v>304.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95" s="4">
+        <v>181.20728470881201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="2">
         <v>38596</v>
       </c>
@@ -2206,8 +2485,11 @@
       <c r="E96" s="4">
         <v>263.60000000000002</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96" s="4">
+        <v>183.226457162803</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="2">
         <v>38626</v>
       </c>
@@ -2223,8 +2505,11 @@
       <c r="E97" s="4">
         <v>285.75</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97" s="4">
+        <v>188.398685600574</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="2">
         <v>38657</v>
       </c>
@@ -2240,8 +2525,11 @@
       <c r="E98" s="4">
         <v>253.25</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98" s="4">
+        <v>189.00289204870899</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="2">
         <v>38687</v>
       </c>
@@ -2257,8 +2545,11 @@
       <c r="E99" s="4">
         <v>240.8</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99" s="4">
+        <v>195.28956718342499</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="2">
         <v>38718</v>
       </c>
@@ -2274,8 +2565,11 @@
       <c r="E100" s="4">
         <v>209.75</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100" s="4">
+        <v>179.63625872655601</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="2">
         <v>38749</v>
       </c>
@@ -2291,8 +2585,11 @@
       <c r="E101" s="4">
         <v>174.25</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101" s="4">
+        <v>174.827770009201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="2">
         <v>38777</v>
       </c>
@@ -2308,8 +2605,11 @@
       <c r="E102" s="4">
         <v>167.2</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102" s="4">
+        <v>171.75548170275201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="2">
         <v>38808</v>
       </c>
@@ -2325,8 +2625,11 @@
       <c r="E103" s="4">
         <v>172</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103" s="4">
+        <v>163.730780708689</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="2">
         <v>38838</v>
       </c>
@@ -2342,8 +2645,11 @@
       <c r="E104" s="4">
         <v>188.25</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104" s="4">
+        <v>165.10413583868299</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="2">
         <v>38869</v>
       </c>
@@ -2359,8 +2665,11 @@
       <c r="E105" s="4">
         <v>224.8</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105" s="4">
+        <v>175.81697721584399</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="2">
         <v>38899</v>
       </c>
@@ -2376,8 +2685,11 @@
       <c r="E106" s="4">
         <v>228</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106" s="4">
+        <v>180.256229764262</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="2">
         <v>38930</v>
       </c>
@@ -2393,8 +2705,11 @@
       <c r="E107" s="4">
         <v>195.75</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107" s="4">
+        <v>181.25113497432901</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="2">
         <v>38961</v>
       </c>
@@ -2410,8 +2725,11 @@
       <c r="E108" s="4">
         <v>205.2</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108" s="4">
+        <v>182.59918716820701</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="2">
         <v>38991</v>
       </c>
@@ -2427,8 +2745,11 @@
       <c r="E109" s="4">
         <v>176</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109" s="4">
+        <v>171.924969517199</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="2">
         <v>39022</v>
       </c>
@@ -2444,8 +2765,11 @@
       <c r="E110" s="4">
         <v>186</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110" s="4">
+        <v>170.97260990424098</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="2">
         <v>39052</v>
       </c>
@@ -2461,8 +2785,11 @@
       <c r="E111" s="4">
         <v>180.8</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111" s="4">
+        <v>159.798808160894</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="2">
         <v>39083</v>
       </c>
@@ -2478,8 +2805,11 @@
       <c r="E112" s="4">
         <v>164.25</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112" s="4">
+        <v>150.37294521092099</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="2">
         <v>39114</v>
       </c>
@@ -2495,8 +2825,11 @@
       <c r="E113" s="4">
         <v>159.25</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113" s="4">
+        <v>154.207300475653</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="2">
         <v>39142</v>
       </c>
@@ -2512,8 +2845,11 @@
       <c r="E114" s="4">
         <v>169.2</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114" s="4">
+        <v>160.31605405957799</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="2">
         <v>39173</v>
       </c>
@@ -2529,8 +2865,11 @@
       <c r="E115" s="4">
         <v>137.25</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="F115" s="4">
+        <v>157.45826670337698</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="2">
         <v>39203</v>
       </c>
@@ -2546,8 +2885,11 @@
       <c r="E116" s="4">
         <v>130.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116" s="4">
+        <v>148.177281589855</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="2">
         <v>39234</v>
       </c>
@@ -2563,8 +2905,11 @@
       <c r="E117" s="4">
         <v>109.4</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117" s="4">
+        <v>164.55637133852801</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="2">
         <v>39264</v>
       </c>
@@ -2580,8 +2925,11 @@
       <c r="E118" s="4">
         <v>135.75</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118" s="4">
+        <v>215.679635946264</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="2">
         <v>39295</v>
       </c>
@@ -2597,8 +2945,11 @@
       <c r="E119" s="4">
         <v>185.4</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119" s="4">
+        <v>230.70040048243499</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="2">
         <v>39326</v>
       </c>
@@ -2614,8 +2965,11 @@
       <c r="E120" s="4">
         <v>176.5</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120" s="4">
+        <v>227.39317824478098</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="2">
         <v>39356</v>
       </c>
@@ -2631,8 +2985,11 @@
       <c r="E121" s="4">
         <v>155.14000000000001</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121" s="4">
+        <v>220.61772461028801</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="2">
         <v>39387</v>
       </c>
@@ -2648,8 +3005,11 @@
       <c r="E122" s="4">
         <v>196.19075000000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122" s="4">
+        <v>278.76180000707001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="2">
         <v>39417</v>
       </c>
@@ -2665,8 +3025,11 @@
       <c r="E123" s="4">
         <v>188.11670000000001</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123" s="4">
+        <v>287.359363601344</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="2">
         <v>39448</v>
       </c>
@@ -2682,8 +3045,11 @@
       <c r="E124" s="4">
         <v>240.82238095238094</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="F124" s="4">
+        <v>329.75432489386799</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="2">
         <v>39479</v>
       </c>
@@ -2699,8 +3065,11 @@
       <c r="E125" s="4">
         <v>249.31405000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="F125" s="4">
+        <v>357.48424132719401</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="2">
         <v>39508</v>
       </c>
@@ -2716,8 +3085,11 @@
       <c r="E126" s="4">
         <v>263.08015000000006</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="F126" s="4">
+        <v>380.23706782316901</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="2">
         <v>39539</v>
       </c>
@@ -2733,8 +3105,11 @@
       <c r="E127" s="4">
         <v>215.88772727272723</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="F127" s="4">
+        <v>329.34172959083799</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="2">
         <v>39569</v>
       </c>
@@ -2750,8 +3125,11 @@
       <c r="E128" s="4">
         <v>178.98790476190476</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128" s="4">
+        <v>313.58970482105701</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="2">
         <v>39600</v>
       </c>
@@ -2767,8 +3145,11 @@
       <c r="E129" s="4">
         <v>180.66371428571432</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129" s="4">
+        <v>346.94898906325903</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="2">
         <v>39630</v>
       </c>
@@ -2784,8 +3165,11 @@
       <c r="E130" s="4">
         <v>217.26345454545455</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="F130" s="4">
+        <v>370.856922645189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="2">
         <v>39661</v>
       </c>
@@ -2801,8 +3185,11 @@
       <c r="E131" s="4">
         <v>221.98242857142856</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="F131" s="4">
+        <v>381.727086128547</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="2">
         <v>39692</v>
       </c>
@@ -2818,8 +3205,11 @@
       <c r="E132" s="4">
         <v>272.75433333333336</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132" s="4">
+        <v>482.10595886922999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="2">
         <v>39722</v>
       </c>
@@ -2835,8 +3225,11 @@
       <c r="E133" s="4">
         <v>533.05959090909107</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="F133" s="4">
+        <v>720.91121993628701</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="2">
         <v>39753</v>
       </c>
@@ -2852,8 +3245,11 @@
       <c r="E134" s="4">
         <v>551.14949999999988</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134" s="4">
+        <v>792.37942995117794</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="2">
         <v>39783</v>
       </c>
@@ -2869,8 +3265,11 @@
       <c r="E135" s="4">
         <v>538.03140909090916</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="F135" s="4">
+        <v>772.86877148541305</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="2">
         <v>39814</v>
       </c>
@@ -2886,8 +3285,11 @@
       <c r="E136" s="4">
         <v>502.23440000000005</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="F136" s="4">
+        <v>643.782541051777</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="2">
         <v>39845</v>
       </c>
@@ -2903,8 +3305,11 @@
       <c r="E137" s="4">
         <v>477.72694736842107</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="F137" s="4">
+        <v>626.04746924528399</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="2">
         <v>39873</v>
       </c>
@@ -2920,8 +3325,11 @@
       <c r="E138" s="4">
         <v>483.52286363636352</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="F138" s="4">
+        <v>636.23755394330294</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="2">
         <v>39904</v>
       </c>
@@ -2937,8 +3345,11 @@
       <c r="E139" s="4">
         <v>417.33385714285714</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="F139" s="4">
+        <v>546.07020318109403</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="2">
         <v>39934</v>
       </c>
@@ -2954,8 +3365,11 @@
       <c r="E140" s="4">
         <v>323.27754999999991</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="F140" s="4">
+        <v>486.06865240648301</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="2">
         <v>39965</v>
       </c>
@@ -2971,8 +3385,11 @@
       <c r="E141" s="4">
         <v>297.55995454545456</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="F141" s="4">
+        <v>422.72290352273905</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="2">
         <v>39995</v>
       </c>
@@ -2988,8 +3405,11 @@
       <c r="E142" s="4">
         <v>297.34072727272729</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="F142" s="4">
+        <v>361.20075106844899</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="2">
         <v>40026</v>
       </c>
@@ -3005,8 +3425,11 @@
       <c r="E143" s="4">
         <v>261.07076190476192</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="F143" s="4">
+        <v>338.80982926235902</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="2">
         <v>40057</v>
       </c>
@@ -3022,8 +3445,11 @@
       <c r="E144" s="4">
         <v>249.4159523809524</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144" s="4">
+        <v>301.84808323135002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="2">
         <v>40087</v>
       </c>
@@ -3039,8 +3465,11 @@
       <c r="E145" s="4">
         <v>220.24633333333333</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="F145" s="4">
+        <v>289.69786608348096</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="2">
         <v>40118</v>
       </c>
@@ -3056,8 +3485,11 @@
       <c r="E146" s="4">
         <v>214.88542105263156</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="F146" s="4">
+        <v>289.52699310043499</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="2">
         <v>40148</v>
       </c>
@@ -3073,8 +3505,11 @@
       <c r="E147" s="4">
         <v>208.12831818181817</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147" s="4">
+        <v>245.31685367742199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" s="2">
         <v>40179</v>
       </c>
@@ -3090,8 +3525,11 @@
       <c r="E148" s="4">
         <v>210.58626315789473</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="F148" s="4">
+        <v>244.64708748306202</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" s="2">
         <v>40210</v>
       </c>
@@ -3107,8 +3545,11 @@
       <c r="E149" s="4">
         <v>235.44973684210527</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="F149" s="4">
+        <v>248.30655704887801</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" s="2">
         <v>40238</v>
       </c>
@@ -3124,8 +3565,11 @@
       <c r="E150" s="4">
         <v>188.87134782608697</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="F150" s="4">
+        <v>226.88838646477598</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" s="2">
         <v>40269</v>
       </c>
@@ -3141,8 +3585,11 @@
       <c r="E151" s="4">
         <v>172.72161904761904</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="F151" s="4">
+        <v>215.963091259355</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="2">
         <v>40299</v>
       </c>
@@ -3158,8 +3605,11 @@
       <c r="E152" s="4">
         <v>230.50414999999992</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152" s="4">
+        <v>262.48105218361002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="2">
         <v>40330</v>
       </c>
@@ -3175,8 +3625,11 @@
       <c r="E153" s="4">
         <v>223.04454545454547</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="F153" s="4">
+        <v>275.79187819405104</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" s="2">
         <v>40360</v>
       </c>
@@ -3192,8 +3645,11 @@
       <c r="E154" s="4">
         <v>197.64980952380955</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="F154" s="4">
+        <v>259.62925432266502</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" s="2">
         <v>40391</v>
       </c>
@@ -3209,8 +3665,11 @@
       <c r="E155" s="4">
         <v>165.73972727272727</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155" s="4">
+        <v>274.69149091720999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" s="2">
         <v>40422</v>
       </c>
@@ -3226,8 +3685,11 @@
       <c r="E156" s="4">
         <v>175.89990476190474</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="F156" s="4">
+        <v>258.35532235999898</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" s="2">
         <v>40452</v>
       </c>
@@ -3243,8 +3705,11 @@
       <c r="E157" s="4">
         <v>157.4068</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157" s="4">
+        <v>245.00009444110401</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" s="2">
         <v>40483</v>
       </c>
@@ -3260,8 +3725,11 @@
       <c r="E158" s="4">
         <v>151.83405000000002</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="F158" s="4">
+        <v>245.36789233286802</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" s="2">
         <v>40513</v>
       </c>
@@ -3277,8 +3745,11 @@
       <c r="E159" s="4">
         <v>160.61831818181818</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="F159" s="4">
+        <v>225.76230374974799</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" s="2">
         <v>40544</v>
       </c>
@@ -3294,8 +3765,11 @@
       <c r="E160" s="4">
         <v>145.95065</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160" s="4">
+        <v>214.744532712835</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" s="2">
         <v>40575</v>
       </c>
@@ -3311,8 +3785,11 @@
       <c r="E161" s="4">
         <v>150.97799999999998</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="F161" s="4">
+        <v>203.54372640848601</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" s="2">
         <v>40603</v>
       </c>
@@ -3328,8 +3805,11 @@
       <c r="E162" s="4">
         <v>155.15060869565218</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="F162" s="4">
+        <v>200.078190735009</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" s="2">
         <v>40634</v>
       </c>
@@ -3345,8 +3825,11 @@
       <c r="E163" s="4">
         <v>151.61375000000001</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="F163" s="4">
+        <v>201.32005896637</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" s="2">
         <v>40664</v>
       </c>
@@ -3362,8 +3845,11 @@
       <c r="E164" s="4">
         <v>147.25933333333333</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="F164" s="4">
+        <v>210.066934961946</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" s="2">
         <v>40695</v>
       </c>
@@ -3379,8 +3865,11 @@
       <c r="E165" s="4">
         <v>144.703</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="F165" s="4">
+        <v>219.23898457478202</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="2">
         <v>40725</v>
       </c>
@@ -3396,8 +3885,11 @@
       <c r="E166" s="4">
         <v>141.88230000000001</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="F166" s="4">
+        <v>225.879695450311</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="2">
         <v>40756</v>
       </c>
@@ -3413,8 +3905,11 @@
       <c r="E167" s="4">
         <v>170.72904347826091</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="F167" s="4">
+        <v>287.06775407973299</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" s="2">
         <v>40787</v>
       </c>
@@ -3430,8 +3925,11 @@
       <c r="E168" s="4">
         <v>216.22057142857142</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="F168" s="4">
+        <v>315.85636995527</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" s="2">
         <v>40817</v>
       </c>
@@ -3447,8 +3945,11 @@
       <c r="E169" s="4">
         <v>206.04930000000002</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="F169" s="4">
+        <v>284.502816278539</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" s="2">
         <v>40848</v>
       </c>
@@ -3464,8 +3965,11 @@
       <c r="E170" s="4">
         <v>196.59025000000003</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="F170" s="4">
+        <v>303.51401648222298</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" s="2">
         <v>40878</v>
       </c>
@@ -3481,8 +3985,11 @@
       <c r="E171" s="4">
         <v>187.60819047619049</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="F171" s="4">
+        <v>291.63016300631199</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" s="2">
         <v>40909</v>
       </c>
@@ -3498,8 +4005,11 @@
       <c r="E172" s="4">
         <v>196.81570000000002</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="F172" s="4">
+        <v>279.55754591808801</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" s="2">
         <v>40940</v>
       </c>
@@ -3515,8 +4025,11 @@
       <c r="E173" s="4">
         <v>175.92945</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="F173" s="4">
+        <v>254.240644602294</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" s="2">
         <v>40969</v>
       </c>
@@ -3532,8 +4045,11 @@
       <c r="E174" s="4">
         <v>149.11363636363632</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="F174" s="4">
+        <v>246.972127761927</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" s="2">
         <v>41000</v>
       </c>
@@ -3549,8 +4065,11 @@
       <c r="E175" s="4">
         <v>147.33520000000001</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="F175" s="4">
+        <v>256.22068421477803</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" s="2">
         <v>41030</v>
       </c>
@@ -3566,8 +4085,11 @@
       <c r="E176" s="4">
         <v>173.47631818181816</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="F176" s="4">
+        <v>283.82294361873301</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="2">
         <v>41061</v>
       </c>
@@ -3583,8 +4105,11 @@
       <c r="E177" s="4">
         <v>172.7335238095238</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="F177" s="4">
+        <v>278.67853357798202</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" s="2">
         <v>41091</v>
       </c>
@@ -3600,8 +4125,11 @@
       <c r="E178" s="4">
         <v>150.57419047619044</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="F178" s="4">
+        <v>263.68477143519402</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" s="2">
         <v>41122</v>
       </c>
@@ -3617,8 +4145,11 @@
       <c r="E179" s="4">
         <v>128.86678260869564</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179" s="4">
+        <v>256.310778673627</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" s="2">
         <v>41153</v>
       </c>
@@ -3634,8 +4165,11 @@
       <c r="E180" s="4">
         <v>126.01152631578947</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="F180" s="4">
+        <v>243.87548322172302</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" s="2">
         <v>41183</v>
       </c>
@@ -3651,8 +4185,11 @@
       <c r="E181" s="4">
         <v>110.47957142857143</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="F181" s="4">
+        <v>227.89320296629597</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" s="2">
         <v>41214</v>
       </c>
@@ -3668,8 +4205,11 @@
       <c r="E182" s="4">
         <v>122.86854999999998</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="F182" s="4">
+        <v>237.50130160535102</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="2">
         <v>41244</v>
       </c>
@@ -3685,8 +4225,11 @@
       <c r="E183" s="4">
         <v>116.40860000000002</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="F183" s="4">
+        <v>226.77027019089402</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" s="2">
         <v>41275</v>
       </c>
@@ -3702,8 +4245,11 @@
       <c r="E184" s="4">
         <v>112.78680952380951</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="F184" s="4">
+        <v>214.541011132356</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" s="2">
         <v>41306</v>
       </c>
@@ -3719,8 +4265,11 @@
       <c r="E185" s="4">
         <v>131.46815789473686</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="F185" s="4">
+        <v>219.40115805785499</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" s="2">
         <v>41334</v>
       </c>
@@ -3736,8 +4285,11 @@
       <c r="E186" s="4">
         <v>141.51505</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="F186" s="4">
+        <v>216.96946779715097</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" s="2">
         <v>41365</v>
       </c>
@@ -3753,8 +4305,11 @@
       <c r="E187" s="4">
         <v>131.96127272727273</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="F187" s="4">
+        <v>210.90557917401699</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" s="2">
         <v>41395</v>
       </c>
@@ -3770,8 +4325,11 @@
       <c r="E188" s="4">
         <v>134.8578181818182</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="F188" s="4">
+        <v>201.87343146168598</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" s="2">
         <v>41426</v>
       </c>
@@ -3787,8 +4345,11 @@
       <c r="E189" s="4">
         <v>180.06924999999998</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="F189" s="4">
+        <v>219.52415443319899</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" s="2">
         <v>41456</v>
       </c>
@@ -3804,8 +4365,11 @@
       <c r="E190" s="4">
         <v>168.84522727272727</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="F190" s="4">
+        <v>206.92991949498199</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" s="2">
         <v>41487</v>
       </c>
@@ -3821,8 +4385,11 @@
       <c r="E191" s="4">
         <v>182.91227272727269</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="F191" s="4">
+        <v>204.138917252852</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" s="2">
         <v>41518</v>
       </c>
@@ -3838,8 +4405,11 @@
       <c r="E192" s="4">
         <v>180.56800000000001</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="F192" s="4">
+        <v>211.02948384989401</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" s="2">
         <v>41548</v>
       </c>
@@ -3855,8 +4425,11 @@
       <c r="E193" s="4">
         <v>171.43777272727269</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="F193" s="4">
+        <v>201.16253253016302</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" s="2">
         <v>41579</v>
       </c>
@@ -3872,8 +4445,11 @@
       <c r="E194" s="4">
         <v>182.6826842105263</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="F194" s="4">
+        <v>196.51247352489099</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" s="2">
         <v>41609</v>
       </c>
@@ -3889,8 +4465,11 @@
       <c r="E195" s="4">
         <v>177.57466666666667</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="F195" s="4">
+        <v>180.83424833839402</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" s="2">
         <v>41640</v>
       </c>
@@ -3906,8 +4485,11 @@
       <c r="E196" s="4">
         <v>183.3945714285714</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="F196" s="4">
+        <v>186.81140758359999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" s="2">
         <v>41671</v>
       </c>
@@ -3923,8 +4505,11 @@
       <c r="E197" s="4">
         <v>188.59347368421052</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="F197" s="4">
+        <v>176.832535755192</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" s="2">
         <v>41699</v>
       </c>
@@ -3940,8 +4525,11 @@
       <c r="E198" s="4">
         <v>176.84271428571427</v>
       </c>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="F198" s="4">
+        <v>171.83392026278398</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" s="2">
         <v>41730</v>
       </c>
@@ -3957,8 +4545,11 @@
       <c r="E199" s="4">
         <v>161.71766666666667</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="F199" s="4">
+        <v>166.27734493911498</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" s="2">
         <v>41760</v>
       </c>
@@ -3974,8 +4565,11 @@
       <c r="E200" s="4">
         <v>153.79066666666665</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="F200" s="4">
+        <v>166.20105159867001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" s="2">
         <v>41791</v>
       </c>
@@ -3991,8 +4585,11 @@
       <c r="E201" s="4">
         <v>144.251</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="F201" s="4">
+        <v>163.102633322055</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" s="2">
         <v>41821</v>
       </c>
@@ -4008,8 +4605,11 @@
       <c r="E202" s="4">
         <v>145.60854545454546</v>
       </c>
-    </row>
-    <row r="203" spans="1:5">
+      <c r="F202" s="4">
+        <v>169.020635053289</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" s="2">
         <v>41852</v>
       </c>
@@ -4025,8 +4625,11 @@
       <c r="E203" s="4">
         <v>153.5210952380952</v>
       </c>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="F203" s="4">
+        <v>168.479610316807</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" s="2">
         <v>41883</v>
       </c>
@@ -4042,8 +4645,11 @@
       <c r="E204" s="4">
         <v>152.12223809523812</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="F204" s="4">
+        <v>183.79210864558499</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" s="2">
         <v>41913</v>
       </c>
@@ -4059,8 +4665,11 @@
       <c r="E205" s="4">
         <v>174.04504545454543</v>
       </c>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="F205" s="4">
+        <v>194.152143661227</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" s="2">
         <v>41944</v>
       </c>
@@ -4076,8 +4685,11 @@
       <c r="E206" s="4">
         <v>172.85238888888887</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="F206" s="4">
+        <v>210.63552752149201</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" s="2">
         <v>41974</v>
       </c>
@@ -4093,8 +4705,11 @@
       <c r="E207" s="4">
         <v>200.22427272727273</v>
       </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="F207" s="4">
+        <v>219.97296898756301</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" s="2">
         <v>42005</v>
       </c>
@@ -4110,8 +4725,11 @@
       <c r="E208" s="4">
         <v>230.61090000000002</v>
       </c>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="F208" s="4">
+        <v>227.982261787167</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" s="2">
         <v>42036</v>
       </c>
@@ -4127,8 +4745,11 @@
       <c r="E209" s="4">
         <v>207.71626315789473</v>
       </c>
-    </row>
-    <row r="210" spans="1:5">
+      <c r="F209" s="4">
+        <v>203.05916795633499</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" s="2">
         <v>42064</v>
       </c>
@@ -4144,8 +4765,11 @@
       <c r="E210" s="4">
         <v>221.83309090909091</v>
       </c>
-    </row>
-    <row r="211" spans="1:5">
+      <c r="F210" s="4">
+        <v>214.23264908751099</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211" s="2">
         <v>42095</v>
       </c>
@@ -4161,8 +4785,11 @@
       <c r="E211" s="4">
         <v>215.69377272727272</v>
       </c>
-    </row>
-    <row r="212" spans="1:5">
+      <c r="F211" s="4">
+        <v>211.17400800297798</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" s="2">
         <v>42125</v>
       </c>
@@ -4178,8 +4805,11 @@
       <c r="E212" s="4">
         <v>208.93104999999997</v>
       </c>
-    </row>
-    <row r="213" spans="1:5">
+      <c r="F212" s="4">
+        <v>211.90619115316701</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" s="2">
         <v>42156</v>
       </c>
@@ -4195,8 +4825,11 @@
       <c r="E213" s="4">
         <v>224.8659090909091</v>
       </c>
-    </row>
-    <row r="214" spans="1:5">
+      <c r="F213" s="4">
+        <v>223.746567369155</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" s="2">
         <v>42186</v>
       </c>
@@ -4212,8 +4845,11 @@
       <c r="E214" s="4">
         <v>242.83850000000001</v>
       </c>
-    </row>
-    <row r="215" spans="1:5">
+      <c r="F214" s="4">
+        <v>237.27141913811201</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" s="2">
         <v>42217</v>
       </c>
@@ -4229,8 +4865,11 @@
       <c r="E215" s="4">
         <v>275.66366666666664</v>
       </c>
-    </row>
-    <row r="216" spans="1:5">
+      <c r="F215" s="4">
+        <v>248.54232199038103</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" s="2">
         <v>42248</v>
       </c>
@@ -4246,8 +4885,11 @@
       <c r="E216" s="4">
         <v>290.78366666666665</v>
       </c>
-    </row>
-    <row r="217" spans="1:5">
+      <c r="F216" s="4">
+        <v>270.20882938517701</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" s="2">
         <v>42278</v>
       </c>
@@ -4263,8 +4905,11 @@
       <c r="E217" s="4">
         <v>283.08004761904766</v>
       </c>
-    </row>
-    <row r="218" spans="1:5">
+      <c r="F217" s="4">
+        <v>247.10662559602898</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" s="2">
         <v>42309</v>
       </c>
@@ -4280,8 +4925,11 @@
       <c r="E218" s="4">
         <v>280.42994736842104</v>
       </c>
-    </row>
-    <row r="219" spans="1:5">
+      <c r="F218" s="4">
+        <v>252.894646413884</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219" s="2">
         <v>42339</v>
       </c>
@@ -4297,8 +4945,11 @@
       <c r="E219" s="4">
         <v>313.59031818181819</v>
       </c>
-    </row>
-    <row r="220" spans="1:5">
+      <c r="F219" s="4">
+        <v>274.61731105840198</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220" s="2">
         <v>42370</v>
       </c>
@@ -4314,8 +4965,11 @@
       <c r="E220" s="4">
         <v>368.41636842105265</v>
       </c>
-    </row>
-    <row r="221" spans="1:5">
+      <c r="F220" s="4">
+        <v>313.903614979201</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221" s="2">
         <v>42401</v>
       </c>
@@ -4331,8 +4985,11 @@
       <c r="E221" s="4">
         <v>392.27010000000001</v>
       </c>
-    </row>
-    <row r="222" spans="1:5">
+      <c r="F221" s="4">
+        <v>315.42189389781601</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222" s="2">
         <v>42430</v>
       </c>
@@ -4348,8 +5005,11 @@
       <c r="E222" s="4">
         <v>309.91813636363634</v>
       </c>
-    </row>
-    <row r="223" spans="1:5">
+      <c r="F222" s="4">
+        <v>273.15788571714796</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" s="2">
         <v>42461</v>
       </c>
@@ -4365,8 +5025,11 @@
       <c r="E223" s="4">
         <v>286.98547619047628</v>
       </c>
-    </row>
-    <row r="224" spans="1:5">
+      <c r="F223" s="4">
+        <v>245.241159138661</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" s="2">
         <v>42491</v>
       </c>
@@ -4382,8 +5045,11 @@
       <c r="E224" s="4">
         <v>291.11247619047617</v>
       </c>
-    </row>
-    <row r="225" spans="1:5">
+      <c r="F224" s="4">
+        <v>242.18054389139701</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" s="2">
         <v>42522</v>
       </c>
@@ -4399,8 +5065,11 @@
       <c r="E225" s="4">
         <v>280.86099999999999</v>
       </c>
-    </row>
-    <row r="226" spans="1:5">
+      <c r="F225" s="4">
+        <v>252.125009784441</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226" s="2">
         <v>42552</v>
       </c>
@@ -4416,8 +5085,11 @@
       <c r="E226" s="4">
         <v>249.54289999999997</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="F226" s="4">
+        <v>232.62325920258201</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227" s="2">
         <v>42583</v>
       </c>
@@ -4433,8 +5105,11 @@
       <c r="E227" s="4">
         <v>234.14526086956516</v>
       </c>
-    </row>
-    <row r="228" spans="1:5">
+      <c r="F227" s="4">
+        <v>212.77106638216998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228" s="2">
         <v>42614</v>
       </c>
@@ -4450,8 +5125,11 @@
       <c r="E228" s="4">
         <v>231.4138571428571</v>
       </c>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="F228" s="4">
+        <v>211.81150190203903</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229" s="2">
         <v>42644</v>
       </c>
@@ -4467,8 +5145,11 @@
       <c r="E229" s="4">
         <v>229.27539999999999</v>
       </c>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="F229" s="4">
+        <v>192.01054753733399</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230" s="2">
         <v>42675</v>
       </c>
@@ -4484,8 +5165,11 @@
       <c r="E230" s="4">
         <v>251.30460000000002</v>
       </c>
-    </row>
-    <row r="231" spans="1:5">
+      <c r="F230" s="4">
+        <v>183.089791092052</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231" s="2">
         <v>42705</v>
       </c>
@@ -4501,8 +5185,11 @@
       <c r="E231" s="4">
         <v>227.92719047619042</v>
       </c>
-    </row>
-    <row r="232" spans="1:5">
+      <c r="F231" s="4">
+        <v>169.22453905869099</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" s="2">
         <v>42736</v>
       </c>
@@ -4518,8 +5205,11 @@
       <c r="E232" s="4">
         <v>211.0017</v>
       </c>
-    </row>
-    <row r="233" spans="1:5">
+      <c r="F232" s="4">
+        <v>164.90687994832601</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233" s="2">
         <v>42767</v>
       </c>
@@ -4535,8 +5225,11 @@
       <c r="E233" s="4">
         <v>198.99352631578947</v>
       </c>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="F233" s="4">
+        <v>160.124293465607</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234" s="2">
         <v>42795</v>
       </c>
@@ -4552,8 +5245,11 @@
       <c r="E234" s="4">
         <v>195.19852173913043</v>
       </c>
-    </row>
-    <row r="235" spans="1:5">
+      <c r="F234" s="4">
+        <v>163.66094608159102</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235" s="2">
         <v>42826</v>
       </c>
@@ -4569,8 +5265,11 @@
       <c r="E235" s="4">
         <v>196.50694736842104</v>
       </c>
-    </row>
-    <row r="236" spans="1:5">
+      <c r="F235" s="4">
+        <v>162.35334998242502</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236" s="2">
         <v>42856</v>
       </c>
@@ -4586,8 +5285,11 @@
       <c r="E236" s="4">
         <v>194.39559090909091</v>
       </c>
-    </row>
-    <row r="237" spans="1:5">
+      <c r="F236" s="4">
+        <v>158.819957468143</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237" s="2">
         <v>42887</v>
       </c>
@@ -4603,8 +5305,11 @@
       <c r="E237" s="4">
         <v>196.42868181818181</v>
       </c>
-    </row>
-    <row r="238" spans="1:5">
+      <c r="F237" s="4">
+        <v>156.62017279523198</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238" s="2">
         <v>42917</v>
       </c>
@@ -4620,8 +5325,11 @@
       <c r="E238" s="4">
         <v>200.23389999999998</v>
       </c>
-    </row>
-    <row r="239" spans="1:5">
+      <c r="F238" s="4">
+        <v>150.97872255789198</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239" s="2">
         <v>42948</v>
       </c>
@@ -4637,8 +5345,11 @@
       <c r="E239" s="4">
         <v>200.69434782608698</v>
       </c>
-    </row>
-    <row r="240" spans="1:5">
+      <c r="F239" s="4">
+        <v>162.89703732580401</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240" s="2">
         <v>42979</v>
       </c>
@@ -4654,8 +5365,11 @@
       <c r="E240" s="4">
         <v>189.15455</v>
       </c>
-    </row>
-    <row r="241" spans="1:5">
+      <c r="F240" s="4">
+        <v>151.16916315300401</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241" s="2">
         <v>43009</v>
       </c>
@@ -4671,8 +5385,11 @@
       <c r="E241" s="4">
         <v>185.36176190476189</v>
       </c>
-    </row>
-    <row r="242" spans="1:5">
+      <c r="F241" s="4">
+        <v>144.06382358111</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242" s="2">
         <v>43040</v>
       </c>
@@ -4688,8 +5405,11 @@
       <c r="E242" s="4">
         <v>186.18619047619046</v>
       </c>
-    </row>
-    <row r="243" spans="1:5">
+      <c r="F242" s="4">
+        <v>145.28741067671899</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243" s="2">
         <v>43070</v>
       </c>
@@ -4705,8 +5425,11 @@
       <c r="E243" s="4">
         <v>173.50979999999996</v>
       </c>
-    </row>
-    <row r="244" spans="1:5">
+      <c r="F243" s="4">
+        <v>141.13547365349498</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244" s="2">
         <v>43101</v>
       </c>
@@ -4722,8 +5445,11 @@
       <c r="E244" s="4">
         <v>159.16314285714287</v>
       </c>
-    </row>
-    <row r="245" spans="1:5">
+      <c r="F244" s="4">
+        <v>127.59470701421401</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245" s="2">
         <v>43132</v>
       </c>
@@ -4739,8 +5465,11 @@
       <c r="E245" s="4">
         <v>173.20563157894736</v>
       </c>
-    </row>
-    <row r="246" spans="1:5">
+      <c r="F245" s="4">
+        <v>137.671933189589</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246" s="2">
         <v>43160</v>
       </c>
@@ -4756,8 +5485,11 @@
       <c r="E246" s="4">
         <v>178.89361904761907</v>
       </c>
-    </row>
-    <row r="247" spans="1:5">
+      <c r="F246" s="4">
+        <v>153.670235162788</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247" s="2">
         <v>43191</v>
       </c>
@@ -4773,8 +5505,11 @@
       <c r="E247" s="4">
         <v>173.24642857142857</v>
       </c>
-    </row>
-    <row r="248" spans="1:5">
+      <c r="F247" s="4">
+        <v>144.72557237109399</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248" s="2">
         <v>43221</v>
       </c>
@@ -4790,8 +5525,11 @@
       <c r="E248" s="4">
         <v>189.72859090909088</v>
       </c>
-    </row>
-    <row r="249" spans="1:5">
+      <c r="F248" s="4">
+        <v>153.44927591309602</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249" s="2">
         <v>43252</v>
       </c>
@@ -4807,8 +5545,11 @@
       <c r="E249" s="4">
         <v>199.79528571428577</v>
       </c>
-    </row>
-    <row r="250" spans="1:5">
+      <c r="F249" s="4">
+        <v>162.02335298797499</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250" s="2">
         <v>43282</v>
       </c>
@@ -4824,8 +5565,11 @@
       <c r="E250" s="4">
         <v>180.19209523809525</v>
       </c>
-    </row>
-    <row r="251" spans="1:5">
+      <c r="F250" s="4">
+        <v>148.364066430321</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251" s="2">
         <v>43313</v>
       </c>
@@ -4841,8 +5585,11 @@
       <c r="E251" s="4">
         <v>182.42013043478261</v>
       </c>
-    </row>
-    <row r="252" spans="1:5">
+      <c r="F251" s="4">
+        <v>152.17286332399101</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" s="2">
         <v>43344</v>
       </c>
@@ -4858,8 +5605,11 @@
       <c r="E252" s="4">
         <v>176.66847368421054</v>
       </c>
-    </row>
-    <row r="253" spans="1:5">
+      <c r="F252" s="4">
+        <v>142.95910915020499</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253" s="2">
         <v>43374</v>
       </c>
@@ -4875,8 +5625,11 @@
       <c r="E253" s="4">
         <v>179.5206818181818</v>
       </c>
-    </row>
-    <row r="254" spans="1:5">
+      <c r="F253" s="4">
+        <v>158.39470238635801</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254" s="2">
         <v>43405</v>
       </c>
@@ -4892,8 +5645,11 @@
       <c r="E254" s="4">
         <v>201.76154999999997</v>
       </c>
-    </row>
-    <row r="255" spans="1:5">
+      <c r="F254" s="4">
+        <v>179.16097411314601</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255" s="2">
         <v>43435</v>
       </c>
@@ -4909,8 +5665,11 @@
       <c r="E255" s="4">
         <v>211.11610526315792</v>
       </c>
-    </row>
-    <row r="256" spans="1:5">
+      <c r="F255" s="4">
+        <v>208.01409226729902</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256" s="2">
         <v>43466</v>
       </c>
@@ -4926,8 +5685,11 @@
       <c r="E256" s="4">
         <v>205.30010000000001</v>
       </c>
-    </row>
-    <row r="257" spans="1:5">
+      <c r="F256" s="4">
+        <v>182.753721516887</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" s="2">
         <v>43497</v>
       </c>
@@ -4943,8 +5705,11 @@
       <c r="E257" s="4">
         <v>190.67689473684212</v>
       </c>
-    </row>
-    <row r="258" spans="1:5">
+      <c r="F257" s="4">
+        <v>164.54410471892399</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" s="2">
         <v>43525</v>
       </c>
@@ -4960,8 +5725,11 @@
       <c r="E258" s="4">
         <v>188.13214285714287</v>
       </c>
-    </row>
-    <row r="259" spans="1:5">
+      <c r="F258" s="4">
+        <v>167.58812883840898</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259" s="2">
         <v>43556</v>
       </c>
@@ -4977,8 +5745,11 @@
       <c r="E259" s="4">
         <v>176.98746666666671</v>
       </c>
-    </row>
-    <row r="260" spans="1:5">
+      <c r="F259" s="4">
+        <v>157.76343062809798</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260" s="2">
         <v>43586</v>
       </c>
@@ -4994,8 +5765,11 @@
       <c r="E260" s="4">
         <v>190.2434545454546</v>
       </c>
-    </row>
-    <row r="261" spans="1:5">
+      <c r="F260" s="4">
+        <v>181.94457038411301</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261" s="2">
         <v>43617</v>
       </c>
@@ -5011,8 +5785,11 @@
       <c r="E261" s="4">
         <v>189.56089999999998</v>
       </c>
-    </row>
-    <row r="262" spans="1:5">
+      <c r="F261" s="4">
+        <v>168.98247919939899</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262" s="2">
         <v>43647</v>
       </c>
@@ -5028,8 +5805,11 @@
       <c r="E262" s="4">
         <v>172.24163636363642</v>
       </c>
-    </row>
-    <row r="263" spans="1:5">
+      <c r="F262" s="4">
+        <v>163.46889595027801</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263" s="2">
         <v>43678</v>
       </c>
@@ -5045,8 +5825,11 @@
       <c r="E263" s="4">
         <v>187.2774545454545</v>
       </c>
-    </row>
-    <row r="264" spans="1:5">
+      <c r="F263" s="4">
+        <v>181.14389901952498</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264" s="2">
         <v>43709</v>
       </c>
@@ -5062,8 +5845,11 @@
       <c r="E264" s="4">
         <v>175.83254999999997</v>
       </c>
-    </row>
-    <row r="265" spans="1:5">
+      <c r="F264" s="4">
+        <v>172.80718537162701</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265" s="2">
         <v>43739</v>
       </c>
@@ -5079,8 +5865,11 @@
       <c r="E265" s="4">
         <v>178.80827272727274</v>
       </c>
-    </row>
-    <row r="266" spans="1:5">
+      <c r="F265" s="4">
+        <v>170.572599838554</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266" s="2">
         <v>43770</v>
       </c>
@@ -5096,8 +5885,11 @@
       <c r="E266" s="4">
         <v>182.0478947368421</v>
       </c>
-    </row>
-    <row r="267" spans="1:5">
+      <c r="F266" s="4">
+        <v>163.57329476245098</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267" s="2">
         <v>43800</v>
       </c>
@@ -5113,8 +5905,11 @@
       <c r="E267" s="4">
         <v>172.15321052631575</v>
       </c>
-    </row>
-    <row r="268" spans="1:5">
+      <c r="F267" s="4">
+        <v>148.22138444076302</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268" s="2">
         <v>43831</v>
       </c>
@@ -5130,8 +5925,11 @@
       <c r="E268" s="4">
         <v>169.71077777777779</v>
       </c>
-    </row>
-    <row r="269" spans="1:5">
+      <c r="F268" s="4">
+        <v>166.44763718835401</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269" s="2">
         <v>43862</v>
       </c>
@@ -5147,8 +5945,11 @@
       <c r="E269" s="4">
         <v>173.12878947368424</v>
       </c>
-    </row>
-    <row r="270" spans="1:5">
+      <c r="F269" s="4">
+        <v>199.30946815077201</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270" s="2">
         <v>43891</v>
       </c>
@@ -5164,8 +5965,11 @@
       <c r="E270" s="4">
         <v>345.14100000000002</v>
       </c>
-    </row>
-    <row r="271" spans="1:5">
+      <c r="F270" s="4">
+        <v>385.239964765595</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271" s="2">
         <v>43922</v>
       </c>
@@ -5181,8 +5985,11 @@
       <c r="E271" s="4">
         <v>390.41490476190472</v>
       </c>
-    </row>
-    <row r="272" spans="1:5">
+      <c r="F271" s="4">
+        <v>291.04897369667202</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272" s="2">
         <v>43952</v>
       </c>
@@ -5198,8 +6005,11 @@
       <c r="E272" s="4">
         <v>337.17689999999993</v>
       </c>
-    </row>
-    <row r="273" spans="1:5">
+      <c r="F272" s="4">
+        <v>254.09555412634802</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273" s="2">
         <v>43983</v>
       </c>
@@ -5215,8 +6025,11 @@
       <c r="E273" s="4">
         <v>287.27954545454543</v>
       </c>
-    </row>
-    <row r="274" spans="1:5">
+      <c r="F273" s="4">
+        <v>234.37271214824798</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274" s="2">
         <v>44013</v>
       </c>
@@ -5232,8 +6045,11 @@
       <c r="E274" s="4">
         <v>271.9176818181819</v>
       </c>
-    </row>
-    <row r="275" spans="1:5">
+      <c r="F274" s="4">
+        <v>204.89778903451599</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275" s="2">
         <v>44044</v>
       </c>
@@ -5249,8 +6065,11 @@
       <c r="E275" s="4">
         <v>236.23400000000001</v>
       </c>
-    </row>
-    <row r="276" spans="1:5">
+      <c r="F275" s="4">
+        <v>195.15365317158998</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276" s="2">
         <v>44075</v>
       </c>
@@ -5266,8 +6085,11 @@
       <c r="E276" s="4">
         <v>254.07766666666669</v>
       </c>
-    </row>
-    <row r="277" spans="1:5">
+      <c r="F276" s="4">
+        <v>206.89645452181099</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277" s="2">
         <v>44105</v>
       </c>
@@ -5283,8 +6105,11 @@
       <c r="E277" s="4">
         <v>240.81223809523811</v>
       </c>
-    </row>
-    <row r="278" spans="1:5">
+      <c r="F277" s="4">
+        <v>194.46575162921701</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278" s="2">
         <v>44136</v>
       </c>
@@ -5300,8 +6125,11 @@
       <c r="E278" s="4">
         <v>218.21684210526317</v>
       </c>
-    </row>
-    <row r="279" spans="1:5">
+      <c r="F278" s="4">
+        <v>168.30012670652602</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279" s="2">
         <v>44166</v>
       </c>
@@ -5317,8 +6145,11 @@
       <c r="E279" s="4">
         <v>210.09290909090913</v>
       </c>
-    </row>
-    <row r="280" spans="1:5">
+      <c r="F279" s="4">
+        <v>149.61412806525001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280" s="2">
         <v>44197</v>
       </c>
@@ -5334,8 +6165,11 @@
       <c r="E280" s="4">
         <v>216.76636842105262</v>
       </c>
-    </row>
-    <row r="281" spans="1:5">
+      <c r="F280" s="4">
+        <v>145.50668373333798</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281" s="2">
         <v>44228</v>
       </c>
@@ -5351,8 +6185,11 @@
       <c r="E281" s="4">
         <v>214.13921052631579</v>
       </c>
-    </row>
-    <row r="282" spans="1:5">
+      <c r="F281" s="4">
+        <v>139.64724676634</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282" s="2">
         <v>44256</v>
       </c>
@@ -5368,8 +6205,11 @@
       <c r="E282" s="4">
         <v>223.46669565217388</v>
       </c>
-    </row>
-    <row r="283" spans="1:5">
+      <c r="F282" s="4">
+        <v>133.663261347804</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283" s="2">
         <v>44287</v>
       </c>
@@ -5385,8 +6225,11 @@
       <c r="E283" s="4">
         <v>220.67385714285712</v>
       </c>
-    </row>
-    <row r="284" spans="1:5">
+      <c r="F283" s="4">
+        <v>127.463067824932</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284" s="2">
         <v>44317</v>
       </c>
@@ -5402,8 +6245,11 @@
       <c r="E284" s="4">
         <v>236.26409999999998</v>
       </c>
-    </row>
-    <row r="285" spans="1:5">
+      <c r="F284" s="4">
+        <v>126.68394509960901</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
       <c r="A285" s="2">
         <v>44348</v>
       </c>
@@ -5419,8 +6265,11 @@
       <c r="E285" s="4">
         <v>243.51790909090911</v>
       </c>
-    </row>
-    <row r="286" spans="1:5">
+      <c r="F285" s="4">
+        <v>118.702881687738</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
       <c r="A286" s="2">
         <v>44378</v>
       </c>
@@ -5436,8 +6285,11 @@
       <c r="E286" s="4">
         <v>267.6954761904762</v>
       </c>
-    </row>
-    <row r="287" spans="1:5">
+      <c r="F286" s="4">
+        <v>125.45437469205001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287" s="2">
         <v>44409</v>
       </c>
@@ -5453,8 +6305,11 @@
       <c r="E287" s="4">
         <v>277.40881818181811</v>
       </c>
-    </row>
-    <row r="288" spans="1:5">
+      <c r="F287" s="4">
+        <v>124.755211138486</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288" s="2">
         <v>44440</v>
       </c>
@@ -5470,8 +6325,11 @@
       <c r="E288" s="4">
         <v>282.40485714285717</v>
       </c>
-    </row>
-    <row r="289" spans="1:5">
+      <c r="F288" s="4">
+        <v>119.286281788723</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
       <c r="A289" s="2">
         <v>44470</v>
       </c>
@@ -5487,8 +6345,11 @@
       <c r="E289" s="4">
         <v>290.89565000000005</v>
       </c>
-    </row>
-    <row r="290" spans="1:5">
+      <c r="F289" s="4">
+        <v>118.583849786562</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
       <c r="A290" s="2">
         <v>44501</v>
       </c>
@@ -5504,8 +6365,11 @@
       <c r="E290" s="4">
         <v>318.22194999999999</v>
       </c>
-    </row>
-    <row r="291" spans="1:5">
+      <c r="F290" s="4">
+        <v>133.576670693452</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
       <c r="A291" s="2">
         <v>44531</v>
       </c>
@@ -5521,8 +6385,11 @@
       <c r="E291" s="4">
         <v>346.14031818181815</v>
       </c>
-    </row>
-    <row r="292" spans="1:5">
+      <c r="F291" s="4">
+        <v>124.74513181483999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
       <c r="A292" s="2">
         <v>44562</v>
       </c>
@@ -5538,8 +6405,11 @@
       <c r="E292" s="4">
         <v>355.40454999999997</v>
       </c>
-    </row>
-    <row r="293" spans="1:5">
+      <c r="F292" s="4">
+        <v>136.288506445514</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
       <c r="A293" s="2">
         <v>44593</v>
       </c>
@@ -5555,8 +6425,11 @@
       <c r="E293" s="4">
         <v>370.97500000000008</v>
       </c>
-    </row>
-    <row r="294" spans="1:5">
+      <c r="F293" s="4">
+        <v>152.47780543609699</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
       <c r="A294" s="2">
         <v>44621</v>
       </c>
@@ -5572,8 +6445,11 @@
       <c r="E294" s="4">
         <v>364.46926086956512</v>
       </c>
-    </row>
-    <row r="295" spans="1:5">
+      <c r="F294" s="4">
+        <v>141.73736408470202</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
       <c r="A295" s="2">
         <v>44652</v>
       </c>
@@ -5589,8 +6465,11 @@
       <c r="E295" s="4">
         <v>344.65845000000002</v>
       </c>
-    </row>
-    <row r="296" spans="1:5">
+      <c r="F295" s="4">
+        <v>159.32289015881798</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
       <c r="A296" s="2">
         <v>44682</v>
       </c>
@@ -5606,8 +6485,11 @@
       <c r="E296" s="4">
         <v>384.36447619047624</v>
       </c>
-    </row>
-    <row r="297" spans="1:5">
+      <c r="F296" s="4">
+        <v>158.454106492797</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
       <c r="A297" s="2">
         <v>44713</v>
       </c>
@@ -5623,8 +6505,11 @@
       <c r="E297" s="4">
         <v>388.81638095238094</v>
       </c>
-    </row>
-    <row r="298" spans="1:5">
+      <c r="F297" s="4">
+        <v>194.44448172693899</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
       <c r="A298" s="2">
         <v>44743</v>
       </c>
@@ -5640,8 +6525,11 @@
       <c r="E298" s="4">
         <v>437.66005000000001</v>
       </c>
-    </row>
-    <row r="299" spans="1:5">
+      <c r="F298" s="4">
+        <v>172.53583429539302</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
       <c r="A299" s="2">
         <v>44774</v>
       </c>
@@ -5657,8 +6545,11 @@
       <c r="E299" s="4">
         <v>400.23460869565224</v>
       </c>
-    </row>
-    <row r="300" spans="1:5">
+      <c r="F299" s="4">
+        <v>172.19283487295601</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
       <c r="A300" s="2">
         <v>44805</v>
       </c>
@@ -5674,8 +6565,11 @@
       <c r="E300" s="4">
         <v>423.67952380952386</v>
       </c>
-    </row>
-    <row r="301" spans="1:5">
+      <c r="F300" s="4">
+        <v>188.165541550912</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
       <c r="A301" s="2">
         <v>44835</v>
       </c>
@@ -5691,8 +6585,11 @@
       <c r="E301" s="4">
         <v>471.4402</v>
       </c>
-    </row>
-    <row r="302" spans="1:5">
+      <c r="F301" s="4">
+        <v>168.19775019321801</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
       <c r="A302" s="2">
         <v>44866</v>
       </c>
@@ -5708,8 +6605,11 @@
       <c r="E302" s="4">
         <v>417.41735</v>
       </c>
-    </row>
-    <row r="303" spans="1:5">
+      <c r="F302" s="4">
+        <v>157.63781544490001</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
       <c r="A303" s="2">
         <v>44896</v>
       </c>
@@ -5725,8 +6625,11 @@
       <c r="E303" s="4">
         <v>382.36061904761908</v>
       </c>
-    </row>
-    <row r="304" spans="1:5">
+      <c r="F303" s="4">
+        <v>152.30644057177699</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
       <c r="A304" s="2">
         <v>44927</v>
       </c>
@@ -5742,8 +6645,11 @@
       <c r="E304" s="4">
         <v>370.80173684210524</v>
       </c>
-    </row>
-    <row r="305" spans="1:5">
+      <c r="F304" s="4">
+        <v>142.16080078260501</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
       <c r="A305" s="2">
         <v>44958</v>
       </c>
@@ -5759,8 +6665,11 @@
       <c r="E305" s="4">
         <v>382.9980526315789</v>
       </c>
-    </row>
-    <row r="306" spans="1:5">
+      <c r="F305" s="4">
+        <v>148.98035660234501</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
       <c r="A306" s="2">
         <v>44986</v>
       </c>
@@ -5776,8 +6685,11 @@
       <c r="E306" s="4">
         <v>411.57578260869565</v>
       </c>
-    </row>
-    <row r="307" spans="1:5">
+      <c r="F306" s="4">
+        <v>153.175571692456</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
       <c r="A307" s="2">
         <v>45017</v>
       </c>
@@ -5793,8 +6705,11 @@
       <c r="E307" s="4">
         <v>402.36284210526321</v>
       </c>
-    </row>
-    <row r="308" spans="1:5">
+      <c r="F307" s="4">
+        <v>153.92906528102901</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
       <c r="A308" s="2">
         <v>45047</v>
       </c>
@@ -5810,8 +6725,11 @@
       <c r="E308" s="4">
         <v>413.20454545454544</v>
       </c>
-    </row>
-    <row r="309" spans="1:5">
+      <c r="F308" s="4">
+        <v>157.19031573138699</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
       <c r="A309" s="2">
         <v>45078</v>
       </c>
@@ -5827,8 +6745,11 @@
       <c r="E309" s="4">
         <v>367.14359999999988</v>
       </c>
-    </row>
-    <row r="310" spans="1:5">
+      <c r="F309" s="4">
+        <v>141.136257526306</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
       <c r="A310" s="2">
         <v>45108</v>
       </c>
@@ -5844,8 +6765,11 @@
       <c r="E310" s="4">
         <v>338.94030000000004</v>
       </c>
-    </row>
-    <row r="311" spans="1:5">
+      <c r="F310" s="4">
+        <v>130.69222566283</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
       <c r="A311" s="2">
         <v>45139</v>
       </c>
@@ -5861,8 +6785,11 @@
       <c r="E311" s="4">
         <v>323.4122857142857</v>
       </c>
-    </row>
-    <row r="312" spans="1:5">
+      <c r="F311" s="4">
+        <v>134.031103723592</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
       <c r="A312" s="2">
         <v>45170</v>
       </c>
@@ -5878,8 +6805,11 @@
       <c r="E312" s="4">
         <v>329.34539999999998</v>
       </c>
-    </row>
-    <row r="313" spans="1:5">
+      <c r="F312" s="4">
+        <v>133.05344733385601</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
       <c r="A313" s="2">
         <v>45200</v>
       </c>
@@ -5895,8 +6825,11 @@
       <c r="E313" s="4">
         <v>346.38623809523813</v>
       </c>
-    </row>
-    <row r="314" spans="1:5">
+      <c r="F313" s="4">
+        <v>142.538232351907</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
       <c r="A314" s="2">
         <v>45231</v>
       </c>
@@ -5912,8 +6845,11 @@
       <c r="E314" s="4">
         <v>313.287380952381</v>
       </c>
-    </row>
-    <row r="315" spans="1:5">
+      <c r="F314" s="4">
+        <v>118.936564275373</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
       <c r="A315" s="2">
         <v>45261</v>
       </c>
@@ -5929,118 +6865,220 @@
       <c r="E315" s="4">
         <v>291.25649999999996</v>
       </c>
-    </row>
-    <row r="316" spans="1:5">
+      <c r="F315" s="4">
+        <v>113.838754890347</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
       <c r="A316" s="2">
         <v>45292</v>
       </c>
       <c r="B316" s="3">
-        <v>3915.336956521739</v>
+        <v>3915.1987096774187</v>
       </c>
       <c r="C316" s="4">
-        <v>80.12</v>
+        <v>79.149545454545446</v>
       </c>
       <c r="D316" s="4">
         <v>102.88</v>
       </c>
       <c r="E316" s="4">
-        <v>303.12671428571429</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
+        <v>301.51736956521739</v>
+      </c>
+      <c r="F316" s="4">
+        <v>110.02957707741601</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
       <c r="A317" s="2">
         <v>45323</v>
       </c>
       <c r="B317" s="3">
-        <v>3926.6786363636361</v>
+        <v>3931.4386206896547</v>
       </c>
       <c r="C317" s="4">
-        <v>83.48</v>
+        <v>81.716190476190476</v>
       </c>
       <c r="D317" s="4">
         <v>104.13</v>
       </c>
       <c r="E317" s="4">
-        <v>309.63827777777783</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
+        <v>309.08206666666672</v>
+      </c>
+      <c r="F317" s="4">
+        <v>110.09398054841999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
       <c r="A318" s="2">
         <v>45352</v>
       </c>
       <c r="B318" s="3">
-        <v>3895.5733333333328</v>
+        <v>3899.3412903225803</v>
       </c>
       <c r="C318" s="4">
-        <v>85.41</v>
+        <v>84.799523809523805</v>
       </c>
       <c r="D318" s="4">
         <v>103.67</v>
       </c>
       <c r="E318" s="4">
-        <v>296.04184210526319</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
+        <v>295.40305095238102</v>
+      </c>
+      <c r="F318" s="4">
+        <v>105.05592229342599</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
       <c r="A319" s="2">
         <v>45383</v>
       </c>
       <c r="B319" s="3">
-        <v>3862.4481818181816</v>
+        <v>3867.9753333333342</v>
       </c>
       <c r="C319" s="4">
-        <v>89.94</v>
+        <v>89</v>
       </c>
       <c r="D319" s="4">
         <v>105.41</v>
       </c>
       <c r="E319" s="4">
-        <v>290.98610000000002</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
+        <v>291.32125909090905</v>
+      </c>
+      <c r="F319" s="4">
+        <v>101.33001115107501</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
       <c r="A320" s="2">
         <v>45413</v>
       </c>
       <c r="B320" s="3">
-        <v>3863.3773913043483</v>
+        <v>3869.1006451612907</v>
       </c>
       <c r="C320" s="4">
-        <v>81.75</v>
+        <v>82.996521739130415</v>
       </c>
       <c r="D320" s="4">
-        <v>104.95</v>
+        <v>104.96340909090908</v>
       </c>
       <c r="E320" s="4">
-        <v>296.18190476190483</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
+        <v>297.3777143478261</v>
+      </c>
+      <c r="F320" s="4">
+        <v>98.180885312719596</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
       <c r="A321" s="2">
         <v>45444</v>
       </c>
       <c r="B321" s="3">
-        <v>4059.125</v>
+        <v>4042.7970000000005</v>
       </c>
       <c r="C321" s="4">
         <v>82.998500000000007</v>
       </c>
       <c r="D321" s="4">
-        <v>105.13</v>
+        <v>105.16526315789473</v>
       </c>
       <c r="E321" s="4">
-        <v>313.62</v>
+        <v>312.954025</v>
+      </c>
+      <c r="F321" s="4">
+        <v>109.14899177155699</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B322" s="3">
+        <v>4036.921935483871</v>
+      </c>
+      <c r="C322" s="4">
+        <v>83.87913043478261</v>
+      </c>
+      <c r="D322" s="4">
+        <v>104.61031818181819</v>
+      </c>
+      <c r="E322" s="4">
+        <v>308.45181956521748</v>
+      </c>
+      <c r="F322" s="4">
+        <v>106.82046329415201</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B323" s="3">
+        <v>4065.5464516129036</v>
+      </c>
+      <c r="C323" s="4">
+        <v>78.875000000000014</v>
+      </c>
+      <c r="D323" s="4">
+        <v>102.212</v>
+      </c>
+      <c r="E323" s="4">
+        <v>322.06256363636362</v>
+      </c>
+      <c r="F323" s="4">
+        <v>109.032447037547</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B324" s="3">
+        <v>4182.5123333333349</v>
+      </c>
+      <c r="C324" s="4">
+        <v>72.870952380952374</v>
+      </c>
+      <c r="D324" s="4">
+        <v>101.0157</v>
+      </c>
+      <c r="E324" s="4">
+        <v>324.3841128571429</v>
+      </c>
+      <c r="F324" s="4">
+        <v>104.593192981535</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B325" s="3">
+        <v>4249.4699999999984</v>
+      </c>
+      <c r="C325" s="4">
+        <v>75.376956521739132</v>
+      </c>
+      <c r="D325" s="4">
+        <v>103.31254545454546</v>
+      </c>
+      <c r="E325" s="4">
+        <v>311.96024260869564</v>
+      </c>
+      <c r="F325" s="4">
+        <v>98.025107719029407</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{7DD66EA6-8AC0-46DB-8159-3A8ED31DF990}"/>
-    <hyperlink ref="D1" r:id="rId2" xr:uid="{7B6547CB-7527-4676-90EF-FB391B7BBDD1}"/>
-    <hyperlink ref="B1" r:id="rId3" xr:uid="{0D91AD4B-3D41-4696-A905-F0991D4C0E0F}"/>
-    <hyperlink ref="E1" r:id="rId4" xr:uid="{21CCECA1-5F67-46D7-AD9B-B3275502FA59}"/>
+    <hyperlink ref="C1" r:id="rId1" display="https://fred.stlouisfed.org/series/MCOILBRENTEU" xr:uid="{7DD66EA6-8AC0-46DB-8159-3A8ED31DF990}"/>
+    <hyperlink ref="D1" r:id="rId2" display="https://fred.stlouisfed.org/series/DTWEXBGS" xr:uid="{7B6547CB-7527-4676-90EF-FB391B7BBDD1}"/>
+    <hyperlink ref="B1" r:id="rId3" display="https://www.banrep.gov.co/es/estadisticas/trm" xr:uid="{0D91AD4B-3D41-4696-A905-F0991D4C0E0F}"/>
+    <hyperlink ref="E1" r:id="rId4" xr:uid="{6540C6D4-84AA-41F2-A6C6-A5332C204004}"/>
+    <hyperlink ref="F1" r:id="rId5" xr:uid="{9FAC299D-691D-4558-8760-9AD886B25E1B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="599" r:id="rId5"/>
+  <pageSetup orientation="portrait" verticalDpi="599" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -6052,49 +7090,43 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B411" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C435" sqref="C435"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="6">
@@ -10463,7 +11495,7 @@
         <v>299.17</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:3">
       <c r="A401" s="6">
         <v>44958</v>
       </c>
@@ -10474,7 +11506,7 @@
         <v>300.83999999999997</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:3">
       <c r="A402" s="6">
         <v>44986</v>
       </c>
@@ -10485,7 +11517,7 @@
         <v>301.83600000000001</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:3">
       <c r="A403" s="6">
         <v>45017</v>
       </c>
@@ -10496,7 +11528,7 @@
         <v>303.363</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:3">
       <c r="A404" s="6">
         <v>45047</v>
       </c>
@@ -10507,7 +11539,7 @@
         <v>304.12700000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:3">
       <c r="A405" s="6">
         <v>45078</v>
       </c>
@@ -10518,7 +11550,7 @@
         <v>305.10899999999998</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:3">
       <c r="A406" s="6">
         <v>45108</v>
       </c>
@@ -10529,7 +11561,7 @@
         <v>305.69099999999997</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:3">
       <c r="A407" s="6">
         <v>45139</v>
       </c>
@@ -10540,7 +11572,7 @@
         <v>307.02600000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:3">
       <c r="A408" s="6">
         <v>45170</v>
       </c>
@@ -10551,7 +11583,7 @@
         <v>307.78899999999999</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:3">
       <c r="A409" s="6">
         <v>45200</v>
       </c>
@@ -10562,7 +11594,7 @@
         <v>307.67099999999999</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:3">
       <c r="A410" s="6">
         <v>45231</v>
       </c>
@@ -10573,7 +11605,7 @@
         <v>307.05099999999999</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:3">
       <c r="A411" s="6">
         <v>45261</v>
       </c>
@@ -10584,437 +11616,258 @@
         <v>306.74599999999998</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:3">
       <c r="A412" s="6">
         <v>45292</v>
       </c>
       <c r="B412" s="8">
-        <v>101.71259999999999</v>
+        <v>101.483</v>
       </c>
       <c r="C412" s="8">
         <v>308.41699999999997</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:3">
       <c r="A413" s="6">
         <v>45323</v>
       </c>
       <c r="B413" s="8">
-        <v>102.7423</v>
+        <v>102.72669999999999</v>
       </c>
       <c r="C413" s="8">
         <v>310.32600000000002</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:3">
       <c r="A414" s="6">
         <v>45352</v>
       </c>
       <c r="B414" s="8">
-        <v>102.50960000000001</v>
+        <v>102.51860000000001</v>
       </c>
       <c r="C414" s="8">
         <v>312.33199999999999</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:3">
       <c r="A415" s="6">
         <v>45383</v>
       </c>
       <c r="B415" s="8">
-        <v>102.429</v>
+        <v>102.35680000000001</v>
       </c>
       <c r="C415" s="8">
         <v>313.548</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:3">
       <c r="A416" s="6">
         <v>45413</v>
       </c>
       <c r="B416" s="8">
-        <v>103.1168</v>
+        <v>102.97969999999999</v>
       </c>
       <c r="C416" s="8">
         <v>314.06900000000002</v>
-      </c>
-      <c r="E416" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F416" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="417" spans="1:6">
       <c r="A417" s="6">
         <v>45444</v>
       </c>
-      <c r="B417" s="10">
-        <f>+B405*(1+E417)</f>
-        <v>103.10877373406895</v>
+      <c r="B417" s="8">
+        <v>103.27679999999999</v>
       </c>
       <c r="C417" s="8">
         <v>314.17500000000001</v>
-      </c>
-      <c r="E417" s="11">
-        <v>7.1094680166803315E-3</v>
-      </c>
-      <c r="F417" s="11">
-        <v>3.2170406213096747E-2</v>
       </c>
     </row>
     <row r="418" spans="1:6">
       <c r="A418" s="6">
         <v>45474</v>
       </c>
-      <c r="B418" s="10">
-        <f t="shared" ref="B418:C433" si="0">+B406*(1+E418)</f>
-        <v>103.06081301405176</v>
-      </c>
-      <c r="C418" s="10">
-        <f t="shared" si="0"/>
-        <v>315.21321223295297</v>
-      </c>
-      <c r="E418" s="11">
-        <v>-1.1047582130041533E-4</v>
-      </c>
-      <c r="F418" s="11">
-        <v>3.1149795816536985E-2</v>
+      <c r="B418" s="8">
+        <v>102.5381</v>
+      </c>
+      <c r="C418" s="8">
+        <v>314.54000000000002</v>
       </c>
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="6">
         <v>45505</v>
       </c>
-      <c r="B419" s="10">
-        <f t="shared" si="0"/>
-        <v>103.25707014957219</v>
-      </c>
-      <c r="C419" s="10">
-        <f t="shared" si="0"/>
-        <v>315.59100531243979</v>
-      </c>
-      <c r="E419" s="11">
-        <v>1.571075148791623E-3</v>
-      </c>
-      <c r="F419" s="11">
-        <v>2.789667752060021E-2</v>
+      <c r="B419" s="8">
+        <v>103.0449</v>
+      </c>
+      <c r="C419" s="8">
+        <v>314.79599999999999</v>
+      </c>
+      <c r="E419" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="420" spans="1:6">
       <c r="A420" s="6">
         <v>45536</v>
       </c>
-      <c r="B420" s="10">
-        <f t="shared" si="0"/>
-        <v>103.35450480631651</v>
-      </c>
-      <c r="C420" s="10">
-        <f t="shared" si="0"/>
-        <v>315.93596112213947</v>
-      </c>
-      <c r="E420" s="11">
-        <v>4.4918845972885535E-4</v>
-      </c>
-      <c r="F420" s="11">
-        <v>2.6469305667647269E-2</v>
+      <c r="B420" s="8">
+        <v>102.5497</v>
+      </c>
+      <c r="C420" s="8">
+        <v>315.30099999999999</v>
       </c>
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="6">
         <v>45566</v>
       </c>
-      <c r="B421" s="10">
-        <f t="shared" si="0"/>
-        <v>103.34717347494305</v>
-      </c>
-      <c r="C421" s="10">
-        <f t="shared" si="0"/>
-        <v>316.5022184826895</v>
-      </c>
-      <c r="E421" s="11">
-        <v>7.4974431671384067E-3</v>
-      </c>
-      <c r="F421" s="11">
-        <v>2.8703447782499891E-2</v>
+      <c r="B421" s="8">
+        <v>102.2805</v>
+      </c>
+      <c r="C421" s="8">
+        <v>315.66399999999999</v>
+      </c>
+      <c r="E421" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F421" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="422" spans="1:6">
       <c r="A422" s="6">
         <v>45597</v>
       </c>
-      <c r="B422" s="10">
-        <f t="shared" si="0"/>
-        <v>103.36081661028774</v>
-      </c>
-      <c r="C422" s="10">
-        <f t="shared" si="0"/>
-        <v>316.09145212093858</v>
-      </c>
-      <c r="E422" s="11">
-        <v>4.6071664225901809E-3</v>
-      </c>
-      <c r="F422" s="11">
-        <v>2.944283562319816E-2</v>
-      </c>
+      <c r="B422" s="8"/>
+      <c r="C422" s="8"/>
+      <c r="E422" s="10"/>
+      <c r="F422" s="10"/>
     </row>
     <row r="423" spans="1:6">
       <c r="A423" s="6">
         <v>45627</v>
       </c>
-      <c r="B423" s="10">
-        <f t="shared" si="0"/>
-        <v>103.48126897068759</v>
-      </c>
-      <c r="C423" s="10">
-        <f t="shared" si="0"/>
-        <v>315.73371681598229</v>
-      </c>
-      <c r="E423" s="11">
-        <v>8.2857011941588343E-3</v>
-      </c>
-      <c r="F423" s="11">
-        <v>2.9300192393649116E-2</v>
-      </c>
+      <c r="B423" s="8"/>
+      <c r="C423" s="8"/>
+      <c r="E423" s="10"/>
+      <c r="F423" s="10"/>
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="6">
         <v>45658</v>
       </c>
-      <c r="B424" s="10">
-        <f t="shared" si="0"/>
-        <v>103.38358550610175</v>
-      </c>
-      <c r="C424" s="10">
-        <f t="shared" si="0"/>
-        <v>317.19441327316468</v>
-      </c>
-      <c r="E424" s="11">
-        <v>1.642850056041989E-2</v>
-      </c>
-      <c r="F424" s="11">
-        <v>2.8459563750262484E-2</v>
-      </c>
+      <c r="B424" s="8"/>
+      <c r="C424" s="8"/>
+      <c r="E424" s="10"/>
+      <c r="F424" s="10"/>
     </row>
     <row r="425" spans="1:6">
       <c r="A425" s="6">
         <v>45689</v>
       </c>
-      <c r="B425" s="10">
-        <f t="shared" si="0"/>
-        <v>103.63676287112072</v>
-      </c>
-      <c r="C425" s="10">
-        <f t="shared" si="0"/>
-        <v>318.32603256283483</v>
-      </c>
-      <c r="E425" s="11">
-        <v>8.7058871674152716E-3</v>
-      </c>
-      <c r="F425" s="11">
-        <v>2.5779446655564753E-2</v>
-      </c>
+      <c r="B425" s="8"/>
+      <c r="C425" s="8"/>
+      <c r="E425" s="10"/>
+      <c r="F425" s="10"/>
     </row>
     <row r="426" spans="1:6">
       <c r="A426" s="6">
         <v>45717</v>
       </c>
-      <c r="B426" s="10">
-        <f t="shared" si="0"/>
-        <v>103.33591219994513</v>
-      </c>
-      <c r="C426" s="10">
-        <f t="shared" si="0"/>
-        <v>319.6704965736796</v>
-      </c>
-      <c r="E426" s="11">
-        <v>8.0608274731841512E-3</v>
-      </c>
-      <c r="F426" s="11">
-        <v>2.3495820388815813E-2</v>
-      </c>
+      <c r="B426" s="8"/>
+      <c r="C426" s="8"/>
+      <c r="E426" s="10"/>
+      <c r="F426" s="10"/>
     </row>
     <row r="427" spans="1:6">
       <c r="A427" s="6">
         <v>45748</v>
       </c>
-      <c r="B427" s="10">
-        <f t="shared" si="0"/>
-        <v>103.31641239442871</v>
-      </c>
-      <c r="C427" s="10">
-        <f t="shared" si="0"/>
-        <v>320.2014359627978</v>
-      </c>
-      <c r="E427" s="11">
-        <v>8.6636830822199862E-3</v>
-      </c>
-      <c r="F427" s="11">
-        <v>2.1219832251514248E-2</v>
-      </c>
+      <c r="B427" s="8"/>
+      <c r="C427" s="8"/>
+      <c r="E427" s="10"/>
+      <c r="F427" s="10"/>
     </row>
     <row r="428" spans="1:6">
       <c r="A428" s="6">
         <v>45778</v>
       </c>
-      <c r="B428" s="10">
-        <f t="shared" si="0"/>
-        <v>103.9498147963249</v>
-      </c>
-      <c r="C428" s="10">
-        <f t="shared" si="0"/>
-        <v>321.17941851854749</v>
-      </c>
-      <c r="E428" s="11">
-        <v>8.0783615892356941E-3</v>
-      </c>
-      <c r="F428" s="11">
-        <v>2.2639670004194867E-2</v>
-      </c>
+      <c r="B428" s="8"/>
+      <c r="C428" s="8"/>
+      <c r="E428" s="10"/>
+      <c r="F428" s="10"/>
     </row>
     <row r="429" spans="1:6">
       <c r="A429" s="6">
         <v>45809</v>
       </c>
-      <c r="B429" s="10">
-        <f t="shared" si="0"/>
-        <v>103.87087444697079</v>
-      </c>
-      <c r="C429" s="10">
-        <f t="shared" si="0"/>
-        <v>321.11706390788032</v>
-      </c>
-      <c r="E429" s="11">
-        <v>7.3912304967120868E-3</v>
-      </c>
-      <c r="F429" s="11">
-        <v>2.2096169039167002E-2</v>
-      </c>
+      <c r="B429" s="8"/>
+      <c r="C429" s="8"/>
+      <c r="E429" s="10"/>
+      <c r="F429" s="10"/>
     </row>
     <row r="430" spans="1:6">
       <c r="A430" s="6">
         <v>45839</v>
       </c>
-      <c r="B430" s="10">
-        <f t="shared" si="0"/>
-        <v>103.71836150964241</v>
-      </c>
-      <c r="C430" s="10">
-        <f t="shared" si="0"/>
-        <v>322.21375569645596</v>
-      </c>
-      <c r="E430" s="11">
-        <v>6.3801989947527282E-3</v>
-      </c>
-      <c r="F430" s="11">
-        <v>2.2208915082941871E-2</v>
-      </c>
+      <c r="B430" s="8"/>
+      <c r="C430" s="8"/>
+      <c r="E430" s="10"/>
+      <c r="F430" s="10"/>
     </row>
     <row r="431" spans="1:6">
       <c r="A431" s="6">
         <v>45870</v>
       </c>
-      <c r="B431" s="10">
-        <f t="shared" si="0"/>
-        <v>103.91034975284663</v>
-      </c>
-      <c r="C431" s="10">
-        <f t="shared" si="0"/>
-        <v>322.49356772103323</v>
-      </c>
-      <c r="E431" s="11">
-        <v>6.3267299985185765E-3</v>
-      </c>
-      <c r="F431" s="11">
-        <v>2.1871860390190179E-2</v>
-      </c>
+      <c r="B431" s="8"/>
+      <c r="C431" s="8"/>
+      <c r="E431" s="10"/>
+      <c r="F431" s="10"/>
     </row>
     <row r="432" spans="1:6">
       <c r="A432" s="6">
         <v>45901</v>
       </c>
-      <c r="B432" s="10">
-        <f t="shared" si="0"/>
-        <v>104.05337719110062</v>
-      </c>
-      <c r="C432" s="10">
-        <f t="shared" si="0"/>
-        <v>322.72471143227199</v>
-      </c>
-      <c r="E432" s="11">
-        <v>6.7618957305612959E-3</v>
-      </c>
-      <c r="F432" s="11">
-        <v>2.1487741648719805E-2</v>
-      </c>
+      <c r="B432" s="8"/>
+      <c r="C432" s="8"/>
+      <c r="E432" s="10"/>
+      <c r="F432" s="10"/>
     </row>
     <row r="433" spans="1:6">
       <c r="A433" s="6">
         <v>45931</v>
       </c>
-      <c r="B433" s="10">
-        <f t="shared" si="0"/>
-        <v>104.20705562547104</v>
-      </c>
-      <c r="C433" s="10">
-        <f t="shared" si="0"/>
-        <v>323.21217172285066</v>
-      </c>
-      <c r="E433" s="11">
-        <v>8.3203257681399023E-3</v>
-      </c>
-      <c r="F433" s="11">
-        <v>2.1200335568984707E-2</v>
-      </c>
+      <c r="B433" s="8"/>
+      <c r="C433" s="8"/>
+      <c r="E433" s="10"/>
+      <c r="F433" s="10"/>
     </row>
     <row r="434" spans="1:6">
       <c r="A434" s="6">
         <v>45962</v>
       </c>
-      <c r="B434" s="10">
-        <f t="shared" ref="B434:C435" si="1">+B422*(1+E434)</f>
-        <v>104.31744831820447</v>
-      </c>
-      <c r="C434" s="10">
-        <f t="shared" si="1"/>
-        <v>322.60850054151621</v>
-      </c>
-      <c r="E434" s="11">
-        <v>9.255264608866387E-3</v>
-      </c>
-      <c r="F434" s="11">
-        <v>2.0617604104283593E-2</v>
-      </c>
+      <c r="B434" s="8"/>
+      <c r="C434" s="8"/>
+      <c r="E434" s="10"/>
+      <c r="F434" s="10"/>
     </row>
     <row r="435" spans="1:6">
       <c r="A435" s="6">
         <v>45992</v>
       </c>
-      <c r="B435" s="10">
-        <f t="shared" si="1"/>
-        <v>104.5371512800965</v>
-      </c>
-      <c r="C435" s="10">
-        <f t="shared" si="1"/>
-        <v>322.01156676901758</v>
-      </c>
-      <c r="E435" s="11">
-        <v>1.0203608053047653E-2</v>
-      </c>
-      <c r="F435" s="11">
-        <v>1.9883368860140305E-2</v>
-      </c>
+      <c r="B435" s="8"/>
+      <c r="C435" s="8"/>
+      <c r="E435" s="10"/>
+      <c r="F435" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://fred.stlouisfed.org/series/INDPRO" xr:uid="{3155EEEF-16F1-4CCB-AD7D-D26C7049AE6A}"/>
-    <hyperlink ref="C1" r:id="rId2" xr:uid="{D2166BE5-0E5A-47D4-859E-F615BD921902}"/>
-    <hyperlink ref="J2" r:id="rId3" xr:uid="{0B5AF6A8-4626-4414-8156-BA329CE058CA}"/>
-    <hyperlink ref="J1" r:id="rId4" xr:uid="{8DAEFBD3-347B-4BBF-B261-F7000F48156D}"/>
-    <hyperlink ref="J3" r:id="rId5" xr:uid="{A5AA5856-216D-4DD2-800D-FBB47695195F}"/>
-    <hyperlink ref="K3" r:id="rId6" xr:uid="{F8A3034E-440C-4EE0-8C0C-670B1939E6B2}"/>
+    <hyperlink ref="C1" r:id="rId1" display="https://data.bls.gov/timeseries/CUUR0000SA0?years_option=all_years" xr:uid="{D2166BE5-0E5A-47D4-859E-F615BD921902}"/>
+    <hyperlink ref="J1" r:id="rId2" xr:uid="{8DAEFBD3-347B-4BBF-B261-F7000F48156D}"/>
+    <hyperlink ref="B1" r:id="rId3" xr:uid="{A3D831D3-0F07-4383-B4ED-AB04F4403D5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Datos_ent/Base.xlsx
+++ b/Datos_ent/Base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arygonza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\repos\VAR_Models\Datos_ent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433BC118-F865-4EF6-A1E5-DEF498E0CCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB7FBDE-97E7-44F5-A269-1AE8E9AAB9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{F7DE5675-7431-4D40-AC4D-5D3792C506F0}"/>
+    <workbookView xWindow="9810" yWindow="4910" windowWidth="22930" windowHeight="12240" activeTab="1" xr2:uid="{F7DE5675-7431-4D40-AC4D-5D3792C506F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Fuente:</t>
   </si>
@@ -78,9 +78,6 @@
     <t>CPI_EEUU</t>
   </si>
   <si>
-    <t>CPI_Index</t>
-  </si>
-  <si>
     <t>Banrep</t>
   </si>
   <si>
@@ -96,18 +93,17 @@
     <t>EBP</t>
   </si>
   <si>
-    <t>Diligenciar</t>
+    <t>Eslacado por x100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,21 +160,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -201,7 +182,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,17 +196,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -249,24 +229,19 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{A1569D36-2BA3-41DF-919F-38B4FE8583EB}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{ECCE7FC4-59B5-4089-94F4-E7EA87EB1FE9}"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
-    <cellStyle name="Porcentaje 2" xfId="5" xr:uid="{E3A78011-4300-4B72-8E8D-FE5B033F927F}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{A1569D36-2BA3-41DF-919F-38B4FE8583EB}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{ECCE7FC4-59B5-4089-94F4-E7EA87EB1FE9}"/>
+    <cellStyle name="Porcentaje 2" xfId="4" xr:uid="{E3A78011-4300-4B72-8E8D-FE5B033F927F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -578,35 +553,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06AA51F-FD66-422B-8077-68ED66061B9A}">
-  <dimension ref="A1:F325"/>
+  <dimension ref="A1:F333"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B300" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B313" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A325" sqref="A325"/>
+      <selection pane="bottomRight" activeCell="A324" sqref="A324:A333"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="F2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -626,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6877,13 +6857,13 @@
         <v>3915.1987096774187</v>
       </c>
       <c r="C316" s="4">
-        <v>79.149545454545446</v>
+        <v>80.12</v>
       </c>
       <c r="D316" s="4">
-        <v>102.88</v>
+        <v>101.333</v>
       </c>
       <c r="E316" s="4">
-        <v>301.51736956521739</v>
+        <v>303.12671428571429</v>
       </c>
       <c r="F316" s="4">
         <v>110.02957707741601</v>
@@ -6897,13 +6877,13 @@
         <v>3931.4386206896547</v>
       </c>
       <c r="C317" s="4">
-        <v>81.716190476190476</v>
+        <v>83.48</v>
       </c>
       <c r="D317" s="4">
-        <v>104.13</v>
+        <v>103.048</v>
       </c>
       <c r="E317" s="4">
-        <v>309.08206666666672</v>
+        <v>309.63827777777783</v>
       </c>
       <c r="F317" s="4">
         <v>110.09398054841999</v>
@@ -6917,13 +6897,13 @@
         <v>3899.3412903225803</v>
       </c>
       <c r="C318" s="4">
-        <v>84.799523809523805</v>
+        <v>85.41</v>
       </c>
       <c r="D318" s="4">
-        <v>103.67</v>
+        <v>103.861</v>
       </c>
       <c r="E318" s="4">
-        <v>295.40305095238102</v>
+        <v>296.04184210526319</v>
       </c>
       <c r="F318" s="4">
         <v>105.05592229342599</v>
@@ -6937,13 +6917,13 @@
         <v>3867.9753333333342</v>
       </c>
       <c r="C319" s="4">
-        <v>89</v>
+        <v>89.94</v>
       </c>
       <c r="D319" s="4">
-        <v>105.41</v>
+        <v>105.01900000000001</v>
       </c>
       <c r="E319" s="4">
-        <v>291.32125909090905</v>
+        <v>290.98610000000002</v>
       </c>
       <c r="F319" s="4">
         <v>101.33001115107501</v>
@@ -6957,13 +6937,13 @@
         <v>3869.1006451612907</v>
       </c>
       <c r="C320" s="4">
-        <v>82.996521739130415</v>
+        <v>81.75</v>
       </c>
       <c r="D320" s="4">
-        <v>104.96340909090908</v>
+        <v>105.755</v>
       </c>
       <c r="E320" s="4">
-        <v>297.3777143478261</v>
+        <v>296.18190476190483</v>
       </c>
       <c r="F320" s="4">
         <v>98.180885312719596</v>
@@ -6977,13 +6957,13 @@
         <v>4042.7970000000005</v>
       </c>
       <c r="C321" s="4">
-        <v>82.998500000000007</v>
+        <v>82.25</v>
       </c>
       <c r="D321" s="4">
-        <v>105.16526315789473</v>
+        <v>104.67100000000001</v>
       </c>
       <c r="E321" s="4">
-        <v>312.954025</v>
+        <v>312.62</v>
       </c>
       <c r="F321" s="4">
         <v>109.14899177155699</v>
@@ -6997,13 +6977,13 @@
         <v>4036.921935483871</v>
       </c>
       <c r="C322" s="4">
-        <v>83.87913043478261</v>
+        <v>85.15</v>
       </c>
       <c r="D322" s="4">
-        <v>104.61031818181819</v>
+        <v>105.901</v>
       </c>
       <c r="E322" s="4">
-        <v>308.45181956521748</v>
+        <v>308.68781818181816</v>
       </c>
       <c r="F322" s="4">
         <v>106.82046329415201</v>
@@ -7017,13 +6997,13 @@
         <v>4065.5464516129036</v>
       </c>
       <c r="C323" s="4">
-        <v>78.875000000000014</v>
+        <v>80.36</v>
       </c>
       <c r="D323" s="4">
-        <v>102.212</v>
+        <v>104.42100000000001</v>
       </c>
       <c r="E323" s="4">
-        <v>322.06256363636362</v>
+        <v>322.21236363636365</v>
       </c>
       <c r="F323" s="4">
         <v>109.032447037547</v>
@@ -7037,13 +7017,13 @@
         <v>4182.5123333333349</v>
       </c>
       <c r="C324" s="4">
-        <v>72.870952380952374</v>
+        <v>74.02</v>
       </c>
       <c r="D324" s="4">
-        <v>101.0157</v>
+        <v>101.69799999999999</v>
       </c>
       <c r="E324" s="4">
-        <v>324.3841128571429</v>
+        <v>324.69510000000008</v>
       </c>
       <c r="F324" s="4">
         <v>104.593192981535</v>
@@ -7057,16 +7037,176 @@
         <v>4249.4699999999984</v>
       </c>
       <c r="C325" s="4">
-        <v>75.376956521739132</v>
+        <v>75.63</v>
       </c>
       <c r="D325" s="4">
-        <v>103.31254545454546</v>
+        <v>101.194</v>
       </c>
       <c r="E325" s="4">
-        <v>311.96024260869564</v>
+        <v>312.28295454545452</v>
       </c>
       <c r="F325" s="4">
         <v>98.025107719029407</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B326" s="3">
+        <v>4408.6523333333334</v>
+      </c>
+      <c r="C326">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="D326">
+        <v>104.282</v>
+      </c>
+      <c r="E326" s="4">
+        <v>323.87299999999999</v>
+      </c>
+      <c r="F326" s="10">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B327" s="3">
+        <v>4385.1487096774199</v>
+      </c>
+      <c r="C327">
+        <v>73.86</v>
+      </c>
+      <c r="D327">
+        <v>105.73699999999999</v>
+      </c>
+      <c r="E327" s="4">
+        <v>322.85323809523805</v>
+      </c>
+      <c r="F327" s="10">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" s="2">
+        <v>45658</v>
+      </c>
+      <c r="B328" s="3">
+        <v>4307.5674193548384</v>
+      </c>
+      <c r="C328">
+        <v>79.27</v>
+      </c>
+      <c r="D328">
+        <v>108.48699999999999</v>
+      </c>
+      <c r="E328" s="4">
+        <v>321.81995238095237</v>
+      </c>
+      <c r="F328" s="10">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" s="2">
+        <v>45689</v>
+      </c>
+      <c r="B329" s="3">
+        <v>4127.9539285714291</v>
+      </c>
+      <c r="C329">
+        <v>75.44</v>
+      </c>
+      <c r="D329">
+        <v>108.37</v>
+      </c>
+      <c r="E329" s="4">
+        <v>325.83257894736846</v>
+      </c>
+      <c r="F329" s="10">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" s="2">
+        <v>45717</v>
+      </c>
+      <c r="B330" s="3">
+        <v>4137.684516129033</v>
+      </c>
+      <c r="C330">
+        <v>72.73</v>
+      </c>
+      <c r="D330">
+        <v>107.614</v>
+      </c>
+      <c r="E330" s="4">
+        <v>336.52838095238093</v>
+      </c>
+      <c r="F330" s="10">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B331" s="3">
+        <v>4280.257999999998</v>
+      </c>
+      <c r="C331">
+        <v>68.13</v>
+      </c>
+      <c r="D331">
+        <v>104.26</v>
+      </c>
+      <c r="E331" s="4">
+        <v>384.76866666666672</v>
+      </c>
+      <c r="F331" s="10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" s="2">
+        <v>45778</v>
+      </c>
+      <c r="B332" s="3">
+        <v>4203.377096774193</v>
+      </c>
+      <c r="C332">
+        <v>64.45</v>
+      </c>
+      <c r="D332">
+        <v>100.248</v>
+      </c>
+      <c r="E332" s="4">
+        <v>357.21204761904761</v>
+      </c>
+      <c r="F332" s="10">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" s="2">
+        <v>45809</v>
+      </c>
+      <c r="B333" s="3">
+        <v>4121.2565384615382</v>
+      </c>
+      <c r="C333">
+        <v>64</v>
+      </c>
+      <c r="D333">
+        <v>99.328999999999994</v>
+      </c>
+      <c r="E333" s="4">
+        <v>346.36205882352942</v>
+      </c>
+      <c r="F333" s="10">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -7084,26 +7224,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0FEBDB-905C-49EE-ABB8-81999A8C7252}">
-  <dimension ref="A1:K435"/>
+  <dimension ref="A1:K447"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B411" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B419" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="A433" sqref="A433:A447"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>17</v>
+      <c r="B1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -11671,195 +11811,346 @@
         <v>314.06900000000002</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:3">
       <c r="A417" s="6">
         <v>45444</v>
       </c>
       <c r="B417" s="8">
-        <v>103.27679999999999</v>
+        <v>103.2534</v>
       </c>
       <c r="C417" s="8">
         <v>314.17500000000001</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:3">
       <c r="A418" s="6">
         <v>45474</v>
       </c>
       <c r="B418" s="8">
-        <v>102.5381</v>
+        <v>102.5192</v>
       </c>
       <c r="C418" s="8">
         <v>314.54000000000002</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:3">
       <c r="A419" s="6">
         <v>45505</v>
       </c>
       <c r="B419" s="8">
-        <v>103.0449</v>
+        <v>103.0196</v>
       </c>
       <c r="C419" s="8">
         <v>314.79599999999999</v>
       </c>
-      <c r="E419" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6">
+    </row>
+    <row r="420" spans="1:3">
       <c r="A420" s="6">
         <v>45536</v>
       </c>
       <c r="B420" s="8">
-        <v>102.5497</v>
+        <v>102.5954</v>
       </c>
       <c r="C420" s="8">
         <v>315.30099999999999</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:3">
       <c r="A421" s="6">
         <v>45566</v>
       </c>
       <c r="B421" s="8">
-        <v>102.2805</v>
+        <v>102.21380000000001</v>
       </c>
       <c r="C421" s="8">
         <v>315.66399999999999</v>
       </c>
-      <c r="E421" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F421" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6">
+    </row>
+    <row r="422" spans="1:3">
       <c r="A422" s="6">
         <v>45597</v>
       </c>
-      <c r="B422" s="8"/>
-      <c r="C422" s="8"/>
-      <c r="E422" s="10"/>
-      <c r="F422" s="10"/>
-    </row>
-    <row r="423" spans="1:6">
+      <c r="B422" s="8">
+        <v>101.9503</v>
+      </c>
+      <c r="C422" s="8">
+        <v>315.49299999999999</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
       <c r="A423" s="6">
         <v>45627</v>
       </c>
-      <c r="B423" s="8"/>
-      <c r="C423" s="8"/>
-      <c r="E423" s="10"/>
-      <c r="F423" s="10"/>
-    </row>
-    <row r="424" spans="1:6">
+      <c r="B423" s="8">
+        <v>103.04470000000001</v>
+      </c>
+      <c r="C423" s="8">
+        <v>315.60500000000002</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
       <c r="A424" s="6">
         <v>45658</v>
       </c>
-      <c r="B424" s="8"/>
-      <c r="C424" s="8"/>
-      <c r="E424" s="10"/>
-      <c r="F424" s="10"/>
-    </row>
-    <row r="425" spans="1:6">
+      <c r="B424" s="8">
+        <v>102.93429999999999</v>
+      </c>
+      <c r="C424" s="8">
+        <v>317.67099999999999</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
       <c r="A425" s="6">
         <v>45689</v>
       </c>
-      <c r="B425" s="8"/>
-      <c r="C425" s="8"/>
-      <c r="E425" s="10"/>
-      <c r="F425" s="10"/>
-    </row>
-    <row r="426" spans="1:6">
+      <c r="B425" s="8">
+        <v>104.0003</v>
+      </c>
+      <c r="C425" s="8">
+        <v>319.08199999999999</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
       <c r="A426" s="6">
         <v>45717</v>
       </c>
-      <c r="B426" s="8"/>
-      <c r="C426" s="8"/>
-      <c r="E426" s="10"/>
-      <c r="F426" s="10"/>
-    </row>
-    <row r="427" spans="1:6">
+      <c r="B426" s="8">
+        <v>103.7483</v>
+      </c>
+      <c r="C426" s="8">
+        <v>319.79899999999998</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
       <c r="A427" s="6">
         <v>45748</v>
       </c>
-      <c r="B427" s="8"/>
-      <c r="C427" s="8"/>
-      <c r="E427" s="10"/>
-      <c r="F427" s="10"/>
-    </row>
-    <row r="428" spans="1:6">
+      <c r="B427" s="8">
+        <v>103.8216</v>
+      </c>
+      <c r="C427" s="8">
+        <v>320.79500000000002</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
       <c r="A428" s="6">
         <v>45778</v>
       </c>
-      <c r="B428" s="8"/>
-      <c r="C428" s="8"/>
-      <c r="E428" s="10"/>
-      <c r="F428" s="10"/>
-    </row>
-    <row r="429" spans="1:6">
+      <c r="B428" s="8">
+        <v>103.59480000000001</v>
+      </c>
+      <c r="C428" s="8">
+        <v>321.46499999999997</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
       <c r="A429" s="6">
         <v>45809</v>
       </c>
-      <c r="B429" s="8"/>
-      <c r="C429" s="8"/>
-      <c r="E429" s="10"/>
-      <c r="F429" s="10"/>
-    </row>
-    <row r="430" spans="1:6">
+      <c r="B429" s="8">
+        <v>104.3095</v>
+      </c>
+      <c r="C429" s="8">
+        <v>325.8784905678454</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
       <c r="A430" s="6">
         <v>45839</v>
       </c>
-      <c r="B430" s="8"/>
-      <c r="C430" s="8"/>
-      <c r="E430" s="10"/>
-      <c r="F430" s="10"/>
-    </row>
-    <row r="431" spans="1:6">
+      <c r="B430" s="8">
+        <v>104.2833</v>
+      </c>
+      <c r="C430" s="8">
+        <v>325.79886403500382</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
       <c r="A431" s="6">
         <v>45870</v>
       </c>
-      <c r="B431" s="8"/>
-      <c r="C431" s="8"/>
-      <c r="E431" s="10"/>
-      <c r="F431" s="10"/>
-    </row>
-    <row r="432" spans="1:6">
+      <c r="B431" s="8">
+        <v>104.2214</v>
+      </c>
+      <c r="C431" s="8">
+        <v>326.0687133724465</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
       <c r="A432" s="6">
         <v>45901</v>
       </c>
-      <c r="B432" s="8"/>
-      <c r="C432" s="8"/>
-      <c r="E432" s="10"/>
-      <c r="F432" s="10"/>
-    </row>
-    <row r="433" spans="1:6">
+      <c r="B432" s="8">
+        <v>104.11360000000001</v>
+      </c>
+      <c r="C432" s="8">
+        <v>326.51139956804968</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
       <c r="A433" s="6">
         <v>45931</v>
       </c>
-      <c r="B433" s="8"/>
-      <c r="C433" s="8"/>
-      <c r="E433" s="10"/>
-      <c r="F433" s="10"/>
-    </row>
-    <row r="434" spans="1:6">
+      <c r="B433" s="8">
+        <v>103.8789</v>
+      </c>
+      <c r="C433" s="8">
+        <v>327.0313010761684</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
       <c r="A434" s="6">
         <v>45962</v>
       </c>
-      <c r="B434" s="8"/>
-      <c r="C434" s="8"/>
-      <c r="E434" s="10"/>
-      <c r="F434" s="10"/>
-    </row>
-    <row r="435" spans="1:6">
+      <c r="B434" s="8">
+        <v>103.7397</v>
+      </c>
+      <c r="C434" s="8">
+        <v>326.64889564858794</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
       <c r="A435" s="6">
         <v>45992</v>
       </c>
-      <c r="B435" s="8"/>
-      <c r="C435" s="8"/>
-      <c r="E435" s="10"/>
-      <c r="F435" s="10"/>
+      <c r="B435" s="8">
+        <v>103.6151</v>
+      </c>
+      <c r="C435" s="8">
+        <v>326.25428260595783</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="6">
+        <v>46023</v>
+      </c>
+      <c r="B436" s="8">
+        <v>103.4579</v>
+      </c>
+      <c r="C436" s="8">
+        <v>327.52231932833155</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="6">
+        <v>46054</v>
+      </c>
+      <c r="B437" s="8">
+        <v>103.398</v>
+      </c>
+      <c r="C437" s="8">
+        <v>328.87952119959346</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="6">
+        <v>46082</v>
+      </c>
+      <c r="B438" s="8">
+        <v>103.38809999999999</v>
+      </c>
+      <c r="C438" s="8">
+        <v>330.35827539946496</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="6">
+        <v>46113</v>
+      </c>
+      <c r="B439" s="8">
+        <v>103.50190000000001</v>
+      </c>
+      <c r="C439" s="8">
+        <v>328.56104935204536</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="6">
+        <v>46143</v>
+      </c>
+      <c r="B440" s="8">
+        <v>103.5369</v>
+      </c>
+      <c r="C440" s="8">
+        <v>328.6284137872027</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="6">
+        <v>46174</v>
+      </c>
+      <c r="B441" s="8">
+        <v>103.5668</v>
+      </c>
+      <c r="C441" s="8">
+        <v>332.84915400423472</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="6">
+        <v>46204</v>
+      </c>
+      <c r="B442" s="8">
+        <v>103.5582</v>
+      </c>
+      <c r="C442" s="8">
+        <v>333.3641907158302</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="6">
+        <v>46235</v>
+      </c>
+      <c r="B443" s="8">
+        <v>103.60290000000001</v>
+      </c>
+      <c r="C443" s="8">
+        <v>333.59801887365461</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="6">
+        <v>46266</v>
+      </c>
+      <c r="B444" s="8">
+        <v>103.6675</v>
+      </c>
+      <c r="C444" s="8">
+        <v>333.92558114473201</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="6">
+        <v>46296</v>
+      </c>
+      <c r="B445" s="8">
+        <v>103.7877</v>
+      </c>
+      <c r="C445" s="8">
+        <v>334.24918764878117</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="6">
+        <v>46327</v>
+      </c>
+      <c r="B446" s="8">
+        <v>103.8653</v>
+      </c>
+      <c r="C446" s="8">
+        <v>333.56842823203743</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="6">
+        <v>46357</v>
+      </c>
+      <c r="B447" s="8">
+        <v>103.93600000000001</v>
+      </c>
+      <c r="C447" s="8">
+        <v>332.79427985724328</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
